--- a/data/nuitees.xlsx
+++ b/data/nuitees.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,12 +443,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43101</v>
       </c>
@@ -501,7 +504,7 @@
         <v>36427</v>
       </c>
       <c r="C2">
-        <v>120186</v>
+        <v>60093</v>
       </c>
       <c r="D2">
         <v>33180</v>
@@ -537,10 +540,10 @@
         <v>29136</v>
       </c>
       <c r="O2">
-        <v>988023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>927930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43102</v>
       </c>
@@ -548,7 +551,7 @@
         <v>18132</v>
       </c>
       <c r="C3">
-        <v>66062</v>
+        <v>33031</v>
       </c>
       <c r="D3">
         <v>14487</v>
@@ -584,10 +587,10 @@
         <v>13421</v>
       </c>
       <c r="O3">
-        <v>477175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>444144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43103</v>
       </c>
@@ -595,7 +598,7 @@
         <v>14976</v>
       </c>
       <c r="C4">
-        <v>54462</v>
+        <v>27231</v>
       </c>
       <c r="D4">
         <v>13997</v>
@@ -631,10 +634,10 @@
         <v>11459</v>
       </c>
       <c r="O4">
-        <v>442198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>414967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43104</v>
       </c>
@@ -642,7 +645,7 @@
         <v>14176</v>
       </c>
       <c r="C5">
-        <v>51810</v>
+        <v>25905</v>
       </c>
       <c r="D5">
         <v>13108</v>
@@ -678,10 +681,10 @@
         <v>11412</v>
       </c>
       <c r="O5">
-        <v>404972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>379067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43105</v>
       </c>
@@ -689,7 +692,7 @@
         <v>11655</v>
       </c>
       <c r="C6">
-        <v>43526</v>
+        <v>21763</v>
       </c>
       <c r="D6">
         <v>11145</v>
@@ -725,10 +728,10 @@
         <v>10663</v>
       </c>
       <c r="O6">
-        <v>355862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>334099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43106</v>
       </c>
@@ -736,7 +739,7 @@
         <v>9520</v>
       </c>
       <c r="C7">
-        <v>39204</v>
+        <v>19602</v>
       </c>
       <c r="D7">
         <v>10310</v>
@@ -772,10 +775,10 @@
         <v>9643</v>
       </c>
       <c r="O7">
-        <v>305882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>286280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43107</v>
       </c>
@@ -783,7 +786,7 @@
         <v>6024</v>
       </c>
       <c r="C8">
-        <v>29684</v>
+        <v>14842</v>
       </c>
       <c r="D8">
         <v>6069</v>
@@ -819,10 +822,10 @@
         <v>8308</v>
       </c>
       <c r="O8">
-        <v>227115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>212273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43108</v>
       </c>
@@ -830,7 +833,7 @@
         <v>6608</v>
       </c>
       <c r="C9">
-        <v>30240</v>
+        <v>15120</v>
       </c>
       <c r="D9">
         <v>6254</v>
@@ -866,10 +869,10 @@
         <v>8776</v>
       </c>
       <c r="O9">
-        <v>230119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>214999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43109</v>
       </c>
@@ -877,7 +880,7 @@
         <v>6603</v>
       </c>
       <c r="C10">
-        <v>29136</v>
+        <v>14568</v>
       </c>
       <c r="D10">
         <v>6348</v>
@@ -913,10 +916,10 @@
         <v>8446</v>
       </c>
       <c r="O10">
-        <v>233507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>218939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43110</v>
       </c>
@@ -924,7 +927,7 @@
         <v>6454</v>
       </c>
       <c r="C11">
-        <v>31180</v>
+        <v>15590</v>
       </c>
       <c r="D11">
         <v>6833</v>
@@ -960,10 +963,10 @@
         <v>9123</v>
       </c>
       <c r="O11">
-        <v>236331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>220741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43111</v>
       </c>
@@ -971,7 +974,7 @@
         <v>6302</v>
       </c>
       <c r="C12">
-        <v>30664</v>
+        <v>15332</v>
       </c>
       <c r="D12">
         <v>6100</v>
@@ -1007,10 +1010,10 @@
         <v>7765</v>
       </c>
       <c r="O12">
-        <v>236797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>221465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43112</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>6930</v>
       </c>
       <c r="C13">
-        <v>31868</v>
+        <v>15934</v>
       </c>
       <c r="D13">
         <v>7361</v>
@@ -1054,10 +1057,10 @@
         <v>7922</v>
       </c>
       <c r="O13">
-        <v>265172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>249238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43113</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>9024</v>
       </c>
       <c r="C14">
-        <v>32894</v>
+        <v>16447</v>
       </c>
       <c r="D14">
         <v>8687</v>
@@ -1101,10 +1104,10 @@
         <v>9506</v>
       </c>
       <c r="O14">
-        <v>291769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>275322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43114</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>5577</v>
       </c>
       <c r="C15">
-        <v>25312</v>
+        <v>12656</v>
       </c>
       <c r="D15">
         <v>5759</v>
@@ -1148,10 +1151,10 @@
         <v>7213</v>
       </c>
       <c r="O15">
-        <v>218340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>205684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43115</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>6228</v>
       </c>
       <c r="C16">
-        <v>31852</v>
+        <v>15926</v>
       </c>
       <c r="D16">
         <v>7141</v>
@@ -1195,10 +1198,10 @@
         <v>8533</v>
       </c>
       <c r="O16">
-        <v>259419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>243493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43116</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>6151</v>
       </c>
       <c r="C17">
-        <v>34714</v>
+        <v>17357</v>
       </c>
       <c r="D17">
         <v>7932</v>
@@ -1242,10 +1245,10 @@
         <v>8703</v>
       </c>
       <c r="O17">
-        <v>277941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>260584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43117</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>5693</v>
       </c>
       <c r="C18">
-        <v>32888</v>
+        <v>16444</v>
       </c>
       <c r="D18">
         <v>6081</v>
@@ -1289,10 +1292,10 @@
         <v>8826</v>
       </c>
       <c r="O18">
-        <v>250085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>233641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43118</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>6117</v>
       </c>
       <c r="C19">
-        <v>31100</v>
+        <v>15550</v>
       </c>
       <c r="D19">
         <v>7386</v>
@@ -1336,10 +1339,10 @@
         <v>9277</v>
       </c>
       <c r="O19">
-        <v>241365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>225815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43119</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>7323</v>
       </c>
       <c r="C20">
-        <v>33442</v>
+        <v>16721</v>
       </c>
       <c r="D20">
         <v>7029</v>
@@ -1383,10 +1386,10 @@
         <v>8617</v>
       </c>
       <c r="O20">
-        <v>287251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>270530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43120</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>9306</v>
       </c>
       <c r="C21">
-        <v>35166</v>
+        <v>17583</v>
       </c>
       <c r="D21">
         <v>8551</v>
@@ -1430,10 +1433,10 @@
         <v>9662</v>
       </c>
       <c r="O21">
-        <v>321788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>304205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43121</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>5687</v>
       </c>
       <c r="C22">
-        <v>27712</v>
+        <v>13856</v>
       </c>
       <c r="D22">
         <v>6295</v>
@@ -1477,10 +1480,10 @@
         <v>7854</v>
       </c>
       <c r="O22">
-        <v>224762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>210906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43122</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>4778</v>
       </c>
       <c r="C23">
-        <v>22048</v>
+        <v>11024</v>
       </c>
       <c r="D23">
         <v>4316</v>
@@ -1524,10 +1527,10 @@
         <v>5480</v>
       </c>
       <c r="O23">
-        <v>153475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>142451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43123</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>4315</v>
       </c>
       <c r="C24">
-        <v>22216</v>
+        <v>11108</v>
       </c>
       <c r="D24">
         <v>5440</v>
@@ -1571,10 +1574,10 @@
         <v>5990</v>
       </c>
       <c r="O24">
-        <v>161713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>150605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43124</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>6894</v>
       </c>
       <c r="C25">
-        <v>30474</v>
+        <v>15237</v>
       </c>
       <c r="D25">
         <v>6349</v>
@@ -1618,10 +1621,10 @@
         <v>7979</v>
       </c>
       <c r="O25">
-        <v>242514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>227277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43125</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>7091</v>
       </c>
       <c r="C26">
-        <v>32950</v>
+        <v>16475</v>
       </c>
       <c r="D26">
         <v>6846</v>
@@ -1665,10 +1668,10 @@
         <v>8776</v>
       </c>
       <c r="O26">
-        <v>246458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>229983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43126</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>8960</v>
       </c>
       <c r="C27">
-        <v>35614</v>
+        <v>17807</v>
       </c>
       <c r="D27">
         <v>7954</v>
@@ -1712,10 +1715,10 @@
         <v>9417</v>
       </c>
       <c r="O27">
-        <v>295003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>277196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43127</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>9980</v>
       </c>
       <c r="C28">
-        <v>39506</v>
+        <v>19753</v>
       </c>
       <c r="D28">
         <v>9959</v>
@@ -1759,10 +1762,10 @@
         <v>10250</v>
       </c>
       <c r="O28">
-        <v>336597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>316844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43128</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>6346</v>
       </c>
       <c r="C29">
-        <v>27844</v>
+        <v>13922</v>
       </c>
       <c r="D29">
         <v>6671</v>
@@ -1806,10 +1809,10 @@
         <v>7253</v>
       </c>
       <c r="O29">
-        <v>238689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>224767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43129</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>5829</v>
       </c>
       <c r="C30">
-        <v>30016</v>
+        <v>15008</v>
       </c>
       <c r="D30">
         <v>7326</v>
@@ -1853,10 +1856,10 @@
         <v>7958</v>
       </c>
       <c r="O30">
-        <v>241551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>226543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43130</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>4839</v>
       </c>
       <c r="C31">
-        <v>24998</v>
+        <v>12499</v>
       </c>
       <c r="D31">
         <v>5816</v>
@@ -1900,10 +1903,10 @@
         <v>7501</v>
       </c>
       <c r="O31">
-        <v>197646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>185147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43131</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>5937</v>
       </c>
       <c r="C32">
-        <v>30196</v>
+        <v>15098</v>
       </c>
       <c r="D32">
         <v>6647</v>
@@ -1947,10 +1950,10 @@
         <v>8885</v>
       </c>
       <c r="O32">
-        <v>241691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>226593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43132</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>6096</v>
       </c>
       <c r="C33">
-        <v>31550</v>
+        <v>15775</v>
       </c>
       <c r="D33">
         <v>6713</v>
@@ -1994,10 +1997,10 @@
         <v>6967</v>
       </c>
       <c r="O33">
-        <v>246626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>230851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43133</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>8885</v>
       </c>
       <c r="C34">
-        <v>36772</v>
+        <v>18386</v>
       </c>
       <c r="D34">
         <v>7344</v>
@@ -2041,10 +2044,10 @@
         <v>8135</v>
       </c>
       <c r="O34">
-        <v>310405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>292019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43134</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>10678</v>
       </c>
       <c r="C35">
-        <v>40560</v>
+        <v>20280</v>
       </c>
       <c r="D35">
         <v>9775</v>
@@ -2088,10 +2091,10 @@
         <v>8744</v>
       </c>
       <c r="O35">
-        <v>335984</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>315704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43135</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>5506</v>
       </c>
       <c r="C36">
-        <v>23470</v>
+        <v>11735</v>
       </c>
       <c r="D36">
         <v>5277</v>
@@ -2135,10 +2138,10 @@
         <v>6336</v>
       </c>
       <c r="O36">
-        <v>189947</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>178212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43136</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>7040</v>
       </c>
       <c r="C37">
-        <v>31980</v>
+        <v>15990</v>
       </c>
       <c r="D37">
         <v>6891</v>
@@ -2182,10 +2185,10 @@
         <v>7234</v>
       </c>
       <c r="O37">
-        <v>251623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>235633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43137</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>6928</v>
       </c>
       <c r="C38">
-        <v>27902</v>
+        <v>13951</v>
       </c>
       <c r="D38">
         <v>6585</v>
@@ -2229,10 +2232,10 @@
         <v>7086</v>
       </c>
       <c r="O38">
-        <v>251340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>237389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43138</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>7063</v>
       </c>
       <c r="C39">
-        <v>28568</v>
+        <v>14284</v>
       </c>
       <c r="D39">
         <v>5789</v>
@@ -2276,10 +2279,10 @@
         <v>8499</v>
       </c>
       <c r="O39">
-        <v>257790</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>243506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43139</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>7521</v>
       </c>
       <c r="C40">
-        <v>33374</v>
+        <v>16687</v>
       </c>
       <c r="D40">
         <v>6149</v>
@@ -2323,10 +2326,10 @@
         <v>8573</v>
       </c>
       <c r="O40">
-        <v>269139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>252452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43140</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>9517</v>
       </c>
       <c r="C41">
-        <v>40320</v>
+        <v>20160</v>
       </c>
       <c r="D41">
         <v>7545</v>
@@ -2370,10 +2373,10 @@
         <v>9110</v>
       </c>
       <c r="O41">
-        <v>325692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>305532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43141</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>13213</v>
       </c>
       <c r="C42">
-        <v>46384</v>
+        <v>23192</v>
       </c>
       <c r="D42">
         <v>9517</v>
@@ -2417,10 +2420,10 @@
         <v>10088</v>
       </c>
       <c r="O42">
-        <v>391070</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>367878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43142</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>11162</v>
       </c>
       <c r="C43">
-        <v>37814</v>
+        <v>18907</v>
       </c>
       <c r="D43">
         <v>7010</v>
@@ -2464,10 +2467,10 @@
         <v>7706</v>
       </c>
       <c r="O43">
-        <v>320233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>301326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43143</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>12148</v>
       </c>
       <c r="C44">
-        <v>43064</v>
+        <v>21532</v>
       </c>
       <c r="D44">
         <v>9200</v>
@@ -2511,10 +2514,10 @@
         <v>8642</v>
       </c>
       <c r="O44">
-        <v>325439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>303907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43144</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>12175</v>
       </c>
       <c r="C45">
-        <v>42780</v>
+        <v>21390</v>
       </c>
       <c r="D45">
         <v>9066</v>
@@ -2558,10 +2561,10 @@
         <v>8687</v>
       </c>
       <c r="O45">
-        <v>328649</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>307259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43145</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>12937</v>
       </c>
       <c r="C46">
-        <v>42732</v>
+        <v>21366</v>
       </c>
       <c r="D46">
         <v>8443</v>
@@ -2605,10 +2608,10 @@
         <v>9271</v>
       </c>
       <c r="O46">
-        <v>341640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <v>320274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43146</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>11683</v>
       </c>
       <c r="C47">
-        <v>43276</v>
+        <v>21638</v>
       </c>
       <c r="D47">
         <v>9836</v>
@@ -2652,10 +2655,10 @@
         <v>9297</v>
       </c>
       <c r="O47">
-        <v>341363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>319725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43147</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>14771</v>
       </c>
       <c r="C48">
-        <v>52184</v>
+        <v>26092</v>
       </c>
       <c r="D48">
         <v>10757</v>
@@ -2699,10 +2702,10 @@
         <v>10675</v>
       </c>
       <c r="O48">
-        <v>401608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>375516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43148</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>17269</v>
       </c>
       <c r="C49">
-        <v>56952</v>
+        <v>28476</v>
       </c>
       <c r="D49">
         <v>15080</v>
@@ -2746,10 +2749,10 @@
         <v>11828</v>
       </c>
       <c r="O49">
-        <v>454188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>425712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43149</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>14642</v>
       </c>
       <c r="C50">
-        <v>47780</v>
+        <v>23890</v>
       </c>
       <c r="D50">
         <v>11996</v>
@@ -2793,10 +2796,10 @@
         <v>10338</v>
       </c>
       <c r="O50">
-        <v>383900</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>360010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43150</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>15340</v>
       </c>
       <c r="C51">
-        <v>54986</v>
+        <v>27493</v>
       </c>
       <c r="D51">
         <v>13079</v>
@@ -2840,10 +2843,10 @@
         <v>11483</v>
       </c>
       <c r="O51">
-        <v>402313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>374820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43151</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>15630</v>
       </c>
       <c r="C52">
-        <v>54606</v>
+        <v>27303</v>
       </c>
       <c r="D52">
         <v>13208</v>
@@ -2887,10 +2890,10 @@
         <v>11288</v>
       </c>
       <c r="O52">
-        <v>404741</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>377438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43152</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>13702</v>
       </c>
       <c r="C53">
-        <v>49246</v>
+        <v>24623</v>
       </c>
       <c r="D53">
         <v>11564</v>
@@ -2934,10 +2937,10 @@
         <v>11428</v>
       </c>
       <c r="O53">
-        <v>367716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>343093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43153</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>15024</v>
       </c>
       <c r="C54">
-        <v>52130</v>
+        <v>26065</v>
       </c>
       <c r="D54">
         <v>13369</v>
@@ -2981,10 +2984,10 @@
         <v>11855</v>
       </c>
       <c r="O54">
-        <v>401953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>375888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43154</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>16754</v>
       </c>
       <c r="C55">
-        <v>55754</v>
+        <v>27877</v>
       </c>
       <c r="D55">
         <v>14995</v>
@@ -3028,10 +3031,10 @@
         <v>12972</v>
       </c>
       <c r="O55">
-        <v>447894</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>420017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43155</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>18355</v>
       </c>
       <c r="C56">
-        <v>59172</v>
+        <v>29586</v>
       </c>
       <c r="D56">
         <v>17767</v>
@@ -3075,10 +3078,10 @@
         <v>15541</v>
       </c>
       <c r="O56">
-        <v>486332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>456746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43156</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>14618</v>
       </c>
       <c r="C57">
-        <v>44386</v>
+        <v>22193</v>
       </c>
       <c r="D57">
         <v>12637</v>
@@ -3122,10 +3125,10 @@
         <v>10787</v>
       </c>
       <c r="O57">
-        <v>383672</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>361479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43157</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>14682</v>
       </c>
       <c r="C58">
-        <v>51372</v>
+        <v>25686</v>
       </c>
       <c r="D58">
         <v>13306</v>
@@ -3169,10 +3172,10 @@
         <v>12237</v>
       </c>
       <c r="O58">
-        <v>391423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>365737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43158</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>12430</v>
       </c>
       <c r="C59">
-        <v>45002</v>
+        <v>22501</v>
       </c>
       <c r="D59">
         <v>12432</v>
@@ -3216,10 +3219,10 @@
         <v>10281</v>
       </c>
       <c r="O59">
-        <v>346043</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>323542</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43159</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>12622</v>
       </c>
       <c r="C60">
-        <v>54870</v>
+        <v>27435</v>
       </c>
       <c r="D60">
         <v>12578</v>
@@ -3263,10 +3266,10 @@
         <v>11073</v>
       </c>
       <c r="O60">
-        <v>378687</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>351252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43160</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>17422</v>
       </c>
       <c r="C61">
-        <v>80744</v>
+        <v>40372</v>
       </c>
       <c r="D61">
         <v>18224</v>
@@ -3310,10 +3313,10 @@
         <v>16132</v>
       </c>
       <c r="O61">
-        <v>532643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>492271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43161</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>13790</v>
       </c>
       <c r="C62">
-        <v>46442</v>
+        <v>23221</v>
       </c>
       <c r="D62">
         <v>14040</v>
@@ -3357,10 +3360,10 @@
         <v>11081</v>
       </c>
       <c r="O62">
-        <v>395165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+        <v>371944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43162</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>14941</v>
       </c>
       <c r="C63">
-        <v>51626</v>
+        <v>25813</v>
       </c>
       <c r="D63">
         <v>15348</v>
@@ -3404,10 +3407,10 @@
         <v>12956</v>
       </c>
       <c r="O63">
-        <v>414342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+        <v>388529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43163</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>8845</v>
       </c>
       <c r="C64">
-        <v>28910</v>
+        <v>14455</v>
       </c>
       <c r="D64">
         <v>7719</v>
@@ -3451,10 +3454,10 @@
         <v>8326</v>
       </c>
       <c r="O64">
-        <v>240196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+        <v>225741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43164</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>11610</v>
       </c>
       <c r="C65">
-        <v>53254</v>
+        <v>26627</v>
       </c>
       <c r="D65">
         <v>10485</v>
@@ -3498,10 +3501,10 @@
         <v>10709</v>
       </c>
       <c r="O65">
-        <v>387554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v>360927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43165</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>14054</v>
       </c>
       <c r="C66">
-        <v>51490</v>
+        <v>25745</v>
       </c>
       <c r="D66">
         <v>10982</v>
@@ -3545,10 +3548,10 @@
         <v>12886</v>
       </c>
       <c r="O66">
-        <v>407633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+        <v>381888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43166</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>14375</v>
       </c>
       <c r="C67">
-        <v>49914</v>
+        <v>24957</v>
       </c>
       <c r="D67">
         <v>10436</v>
@@ -3592,10 +3595,10 @@
         <v>14949</v>
       </c>
       <c r="O67">
-        <v>399970</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+        <v>375013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43167</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>13608</v>
       </c>
       <c r="C68">
-        <v>45740</v>
+        <v>22870</v>
       </c>
       <c r="D68">
         <v>12284</v>
@@ -3639,10 +3642,10 @@
         <v>12067</v>
       </c>
       <c r="O68">
-        <v>367013</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v>344143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43168</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>16042</v>
       </c>
       <c r="C69">
-        <v>50842</v>
+        <v>25421</v>
       </c>
       <c r="D69">
         <v>12591</v>
@@ -3686,10 +3689,10 @@
         <v>13045</v>
       </c>
       <c r="O69">
-        <v>426725</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <v>401304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43169</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>12212</v>
       </c>
       <c r="C70">
-        <v>48724</v>
+        <v>24362</v>
       </c>
       <c r="D70">
         <v>14145</v>
@@ -3733,10 +3736,10 @@
         <v>13227</v>
       </c>
       <c r="O70">
-        <v>395206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <v>370844</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43170</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>8700</v>
       </c>
       <c r="C71">
-        <v>39426</v>
+        <v>19713</v>
       </c>
       <c r="D71">
         <v>9843</v>
@@ -3780,10 +3783,10 @@
         <v>10098</v>
       </c>
       <c r="O71">
-        <v>301260</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+        <v>281547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43171</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>10812</v>
       </c>
       <c r="C72">
-        <v>48528</v>
+        <v>24264</v>
       </c>
       <c r="D72">
         <v>10598</v>
@@ -3827,10 +3830,10 @@
         <v>11221</v>
       </c>
       <c r="O72">
-        <v>341337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <v>317073</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43172</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>10170</v>
       </c>
       <c r="C73">
-        <v>47652</v>
+        <v>23826</v>
       </c>
       <c r="D73">
         <v>11089</v>
@@ -3874,10 +3877,10 @@
         <v>13148</v>
       </c>
       <c r="O73">
-        <v>343758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>319932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43173</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>3658</v>
       </c>
       <c r="C74">
-        <v>10428</v>
+        <v>5214</v>
       </c>
       <c r="D74">
         <v>2680</v>
@@ -3921,10 +3924,10 @@
         <v>2229</v>
       </c>
       <c r="O74">
-        <v>78862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>73648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43174</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>2110</v>
       </c>
       <c r="C75">
-        <v>9640</v>
+        <v>4820</v>
       </c>
       <c r="D75">
         <v>3375</v>
@@ -3968,10 +3971,10 @@
         <v>3162</v>
       </c>
       <c r="O75">
-        <v>88631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <v>83811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43175</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>10839</v>
       </c>
       <c r="C76">
-        <v>49038</v>
+        <v>24519</v>
       </c>
       <c r="D76">
         <v>12788</v>
@@ -4015,10 +4018,10 @@
         <v>13683</v>
       </c>
       <c r="O76">
-        <v>403043</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <v>378524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43176</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>11029</v>
       </c>
       <c r="C77">
-        <v>57408</v>
+        <v>28704</v>
       </c>
       <c r="D77">
         <v>16759</v>
@@ -4062,10 +4065,10 @@
         <v>15647</v>
       </c>
       <c r="O77">
-        <v>454319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>425615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43177</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>7076</v>
       </c>
       <c r="C78">
-        <v>42440</v>
+        <v>21220</v>
       </c>
       <c r="D78">
         <v>11666</v>
@@ -4109,10 +4112,10 @@
         <v>11858</v>
       </c>
       <c r="O78">
-        <v>323120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <v>301900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43178</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>7290</v>
       </c>
       <c r="C79">
-        <v>49326</v>
+        <v>24663</v>
       </c>
       <c r="D79">
         <v>12096</v>
@@ -4156,10 +4159,10 @@
         <v>10500</v>
       </c>
       <c r="O79">
-        <v>333996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+        <v>309333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43179</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>7729</v>
       </c>
       <c r="C80">
-        <v>46822</v>
+        <v>23411</v>
       </c>
       <c r="D80">
         <v>11832</v>
@@ -4203,10 +4206,10 @@
         <v>12607</v>
       </c>
       <c r="O80">
-        <v>341982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <v>318571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43180</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>8729</v>
       </c>
       <c r="C81">
-        <v>49734</v>
+        <v>24867</v>
       </c>
       <c r="D81">
         <v>12149</v>
@@ -4250,10 +4253,10 @@
         <v>11570</v>
       </c>
       <c r="O81">
-        <v>310579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <v>285712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43181</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>8748</v>
       </c>
       <c r="C82">
-        <v>48268</v>
+        <v>24134</v>
       </c>
       <c r="D82">
         <v>12136</v>
@@ -4297,10 +4300,10 @@
         <v>12622</v>
       </c>
       <c r="O82">
-        <v>345902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+        <v>321768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43182</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>10131</v>
       </c>
       <c r="C83">
-        <v>56782</v>
+        <v>28391</v>
       </c>
       <c r="D83">
         <v>14587</v>
@@ -4344,10 +4347,10 @@
         <v>12929</v>
       </c>
       <c r="O83">
-        <v>407326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+        <v>378935</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43183</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>10617</v>
       </c>
       <c r="C84">
-        <v>65724</v>
+        <v>32862</v>
       </c>
       <c r="D84">
         <v>16980</v>
@@ -4391,10 +4394,10 @@
         <v>14362</v>
       </c>
       <c r="O84">
-        <v>454703</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+        <v>421841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43184</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>8504</v>
       </c>
       <c r="C85">
-        <v>54078</v>
+        <v>27039</v>
       </c>
       <c r="D85">
         <v>12582</v>
@@ -4438,10 +4441,10 @@
         <v>11566</v>
       </c>
       <c r="O85">
-        <v>364775</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <v>337736</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43185</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>7358</v>
       </c>
       <c r="C86">
-        <v>60954</v>
+        <v>30477</v>
       </c>
       <c r="D86">
         <v>12336</v>
@@ -4485,10 +4488,10 @@
         <v>11704</v>
       </c>
       <c r="O86">
-        <v>370400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+        <v>339923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43186</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>8286</v>
       </c>
       <c r="C87">
-        <v>64482</v>
+        <v>32241</v>
       </c>
       <c r="D87">
         <v>12849</v>
@@ -4532,10 +4535,10 @@
         <v>12820</v>
       </c>
       <c r="O87">
-        <v>408677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+        <v>376436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43187</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>9123</v>
       </c>
       <c r="C88">
-        <v>68976</v>
+        <v>34488</v>
       </c>
       <c r="D88">
         <v>12809</v>
@@ -4579,10 +4582,10 @@
         <v>12328</v>
       </c>
       <c r="O88">
-        <v>418783</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+        <v>384295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43188</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>10087</v>
       </c>
       <c r="C89">
-        <v>84042</v>
+        <v>42021</v>
       </c>
       <c r="D89">
         <v>14920</v>
@@ -4626,10 +4629,10 @@
         <v>13399</v>
       </c>
       <c r="O89">
-        <v>486191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+        <v>444170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43189</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>14998</v>
       </c>
       <c r="C90">
-        <v>105610</v>
+        <v>52805</v>
       </c>
       <c r="D90">
         <v>19737</v>
@@ -4673,10 +4676,10 @@
         <v>14757</v>
       </c>
       <c r="O90">
-        <v>639216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>586411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43190</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>18244</v>
       </c>
       <c r="C91">
-        <v>118888</v>
+        <v>59444</v>
       </c>
       <c r="D91">
         <v>29440</v>
@@ -4720,10 +4723,10 @@
         <v>19788</v>
       </c>
       <c r="O91">
-        <v>784351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+        <v>724907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43191</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>16177</v>
       </c>
       <c r="C92">
-        <v>103836</v>
+        <v>51918</v>
       </c>
       <c r="D92">
         <v>25597</v>
@@ -4767,10 +4770,10 @@
         <v>17905</v>
       </c>
       <c r="O92">
-        <v>692145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+        <v>640227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43192</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>8678</v>
       </c>
       <c r="C93">
-        <v>67760</v>
+        <v>33880</v>
       </c>
       <c r="D93">
         <v>13866</v>
@@ -4814,10 +4817,10 @@
         <v>13184</v>
       </c>
       <c r="O93">
-        <v>433944</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+        <v>400064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43193</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>7802</v>
       </c>
       <c r="C94">
-        <v>69312</v>
+        <v>34656</v>
       </c>
       <c r="D94">
         <v>14075</v>
@@ -4861,10 +4864,10 @@
         <v>13036</v>
       </c>
       <c r="O94">
-        <v>430437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+        <v>395781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43194</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>8020</v>
       </c>
       <c r="C95">
-        <v>71556</v>
+        <v>35778</v>
       </c>
       <c r="D95">
         <v>14075</v>
@@ -4908,10 +4911,10 @@
         <v>13840</v>
       </c>
       <c r="O95">
-        <v>429669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+        <v>393891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43195</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>6987</v>
       </c>
       <c r="C96">
-        <v>63826</v>
+        <v>31913</v>
       </c>
       <c r="D96">
         <v>13120</v>
@@ -4955,10 +4958,10 @@
         <v>12065</v>
       </c>
       <c r="O96">
-        <v>414097</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+        <v>382184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43196</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>7998</v>
       </c>
       <c r="C97">
-        <v>69714</v>
+        <v>34857</v>
       </c>
       <c r="D97">
         <v>16474</v>
@@ -5002,10 +5005,10 @@
         <v>13541</v>
       </c>
       <c r="O97">
-        <v>463578</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+        <v>428721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43197</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>8795</v>
       </c>
       <c r="C98">
-        <v>75140</v>
+        <v>37570</v>
       </c>
       <c r="D98">
         <v>20036</v>
@@ -5049,10 +5052,10 @@
         <v>15382</v>
       </c>
       <c r="O98">
-        <v>511098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+        <v>473528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43198</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>6182</v>
       </c>
       <c r="C99">
-        <v>61270</v>
+        <v>30635</v>
       </c>
       <c r="D99">
         <v>13485</v>
@@ -5096,10 +5099,10 @@
         <v>11744</v>
       </c>
       <c r="O99">
-        <v>397449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+        <v>366814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43199</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>7072</v>
       </c>
       <c r="C100">
-        <v>60658</v>
+        <v>30329</v>
       </c>
       <c r="D100">
         <v>12209</v>
@@ -5143,10 +5146,10 @@
         <v>11956</v>
       </c>
       <c r="O100">
-        <v>401865</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+        <v>371536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43200</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>7490</v>
       </c>
       <c r="C101">
-        <v>65854</v>
+        <v>32927</v>
       </c>
       <c r="D101">
         <v>13231</v>
@@ -5190,10 +5193,10 @@
         <v>12475</v>
       </c>
       <c r="O101">
-        <v>425388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+        <v>392461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43201</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>6577</v>
       </c>
       <c r="C102">
-        <v>59032</v>
+        <v>29516</v>
       </c>
       <c r="D102">
         <v>12630</v>
@@ -5237,10 +5240,10 @@
         <v>11545</v>
       </c>
       <c r="O102">
-        <v>398961</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+        <v>369445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43202</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>7915</v>
       </c>
       <c r="C103">
-        <v>65322</v>
+        <v>32661</v>
       </c>
       <c r="D103">
         <v>13170</v>
@@ -5284,10 +5287,10 @@
         <v>12624</v>
       </c>
       <c r="O103">
-        <v>408798</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+        <v>376137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43203</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>10671</v>
       </c>
       <c r="C104">
-        <v>74360</v>
+        <v>37180</v>
       </c>
       <c r="D104">
         <v>17896</v>
@@ -5331,10 +5334,10 @@
         <v>13328</v>
       </c>
       <c r="O104">
-        <v>501831</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+        <v>464651</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43204</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>11768</v>
       </c>
       <c r="C105">
-        <v>82350</v>
+        <v>41175</v>
       </c>
       <c r="D105">
         <v>23170</v>
@@ -5378,10 +5381,10 @@
         <v>16038</v>
       </c>
       <c r="O105">
-        <v>585230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+        <v>544055</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43205</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>9553</v>
       </c>
       <c r="C106">
-        <v>71914</v>
+        <v>35957</v>
       </c>
       <c r="D106">
         <v>17363</v>
@@ -5425,10 +5428,10 @@
         <v>13151</v>
       </c>
       <c r="O106">
-        <v>495199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+        <v>459242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43206</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>10145</v>
       </c>
       <c r="C107">
-        <v>77876</v>
+        <v>38938</v>
       </c>
       <c r="D107">
         <v>18434</v>
@@ -5472,10 +5475,10 @@
         <v>14318</v>
       </c>
       <c r="O107">
-        <v>522186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+        <v>483248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43207</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>11709</v>
       </c>
       <c r="C108">
-        <v>86508</v>
+        <v>43254</v>
       </c>
       <c r="D108">
         <v>21255</v>
@@ -5519,10 +5522,10 @@
         <v>15987</v>
       </c>
       <c r="O108">
-        <v>563553</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+        <v>520299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43208</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>10825</v>
       </c>
       <c r="C109">
-        <v>86968</v>
+        <v>43484</v>
       </c>
       <c r="D109">
         <v>21029</v>
@@ -5566,10 +5569,10 @@
         <v>15702</v>
       </c>
       <c r="O109">
-        <v>560546</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+        <v>517062</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43209</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>11135</v>
       </c>
       <c r="C110">
-        <v>89484</v>
+        <v>44742</v>
       </c>
       <c r="D110">
         <v>20016</v>
@@ -5613,10 +5616,10 @@
         <v>16388</v>
       </c>
       <c r="O110">
-        <v>569259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+        <v>524517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43210</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>11484</v>
       </c>
       <c r="C111">
-        <v>92932</v>
+        <v>46466</v>
       </c>
       <c r="D111">
         <v>24716</v>
@@ -5660,10 +5663,10 @@
         <v>18216</v>
       </c>
       <c r="O111">
-        <v>605617</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+        <v>559151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43211</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>12112</v>
       </c>
       <c r="C112">
-        <v>94538</v>
+        <v>47269</v>
       </c>
       <c r="D112">
         <v>28584</v>
@@ -5707,10 +5710,10 @@
         <v>19467</v>
       </c>
       <c r="O112">
-        <v>636207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+        <v>588938</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43212</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>9274</v>
       </c>
       <c r="C113">
-        <v>69866</v>
+        <v>34933</v>
       </c>
       <c r="D113">
         <v>18090</v>
@@ -5754,10 +5757,10 @@
         <v>13986</v>
       </c>
       <c r="O113">
-        <v>480501</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+        <v>445568</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43213</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>9212</v>
       </c>
       <c r="C114">
-        <v>76020</v>
+        <v>38010</v>
       </c>
       <c r="D114">
         <v>19943</v>
@@ -5801,10 +5804,10 @@
         <v>14884</v>
       </c>
       <c r="O114">
-        <v>509150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+        <v>471140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43214</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>7951</v>
       </c>
       <c r="C115">
-        <v>60238</v>
+        <v>30119</v>
       </c>
       <c r="D115">
         <v>16306</v>
@@ -5848,10 +5851,10 @@
         <v>10839</v>
       </c>
       <c r="O115">
-        <v>445160</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+        <v>415041</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43215</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>7651</v>
       </c>
       <c r="C116">
-        <v>61012</v>
+        <v>30506</v>
       </c>
       <c r="D116">
         <v>15155</v>
@@ -5895,10 +5898,10 @@
         <v>10099</v>
       </c>
       <c r="O116">
-        <v>448080</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+        <v>417574</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43216</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>7890</v>
       </c>
       <c r="C117">
-        <v>63106</v>
+        <v>31553</v>
       </c>
       <c r="D117">
         <v>14819</v>
@@ -5942,10 +5945,10 @@
         <v>11781</v>
       </c>
       <c r="O117">
-        <v>457635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+        <v>426082</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43217</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>8751</v>
       </c>
       <c r="C118">
-        <v>67992</v>
+        <v>33996</v>
       </c>
       <c r="D118">
         <v>17907</v>
@@ -5989,10 +5992,10 @@
         <v>13768</v>
       </c>
       <c r="O118">
-        <v>515795</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+        <v>481799</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43218</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>10178</v>
       </c>
       <c r="C119">
-        <v>87518</v>
+        <v>43759</v>
       </c>
       <c r="D119">
         <v>22276</v>
@@ -6036,10 +6039,10 @@
         <v>15609</v>
       </c>
       <c r="O119">
-        <v>615074</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+        <v>571315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43219</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>8029</v>
       </c>
       <c r="C120">
-        <v>72708</v>
+        <v>36354</v>
       </c>
       <c r="D120">
         <v>16656</v>
@@ -6083,10 +6086,10 @@
         <v>12544</v>
       </c>
       <c r="O120">
-        <v>524636</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+        <v>488282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43220</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>10140</v>
       </c>
       <c r="C121">
-        <v>95750</v>
+        <v>47875</v>
       </c>
       <c r="D121">
         <v>20785</v>
@@ -6130,10 +6133,10 @@
         <v>16344</v>
       </c>
       <c r="O121">
-        <v>599772</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+        <v>551897</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43221</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>9875</v>
       </c>
       <c r="C122">
-        <v>77362</v>
+        <v>38681</v>
       </c>
       <c r="D122">
         <v>17103</v>
@@ -6177,10 +6180,10 @@
         <v>13611</v>
       </c>
       <c r="O122">
-        <v>520161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+        <v>481480</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43222</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>8874</v>
       </c>
       <c r="C123">
-        <v>85116</v>
+        <v>42558</v>
       </c>
       <c r="D123">
         <v>19730</v>
@@ -6224,10 +6227,10 @@
         <v>15081</v>
       </c>
       <c r="O123">
-        <v>541093</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+        <v>498535</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43223</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>10274</v>
       </c>
       <c r="C124">
-        <v>90046</v>
+        <v>45023</v>
       </c>
       <c r="D124">
         <v>17910</v>
@@ -6271,10 +6274,10 @@
         <v>15682</v>
       </c>
       <c r="O124">
-        <v>554455</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+        <v>509432</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43224</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>10793</v>
       </c>
       <c r="C125">
-        <v>101098</v>
+        <v>50549</v>
       </c>
       <c r="D125">
         <v>20891</v>
@@ -6318,10 +6321,10 @@
         <v>17357</v>
       </c>
       <c r="O125">
-        <v>639069</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+        <v>588520</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43225</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>14056</v>
       </c>
       <c r="C126">
-        <v>116406</v>
+        <v>58203</v>
       </c>
       <c r="D126">
         <v>30101</v>
@@ -6365,10 +6368,10 @@
         <v>22344</v>
       </c>
       <c r="O126">
-        <v>777718</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+        <v>719515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43226</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>3500</v>
       </c>
       <c r="C127">
-        <v>29102</v>
+        <v>14551</v>
       </c>
       <c r="D127">
         <v>7902</v>
@@ -6412,10 +6415,10 @@
         <v>5219</v>
       </c>
       <c r="O127">
-        <v>208771</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+        <v>194220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43227</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>14426</v>
       </c>
       <c r="C128">
-        <v>103870</v>
+        <v>51935</v>
       </c>
       <c r="D128">
         <v>26522</v>
@@ -6459,10 +6462,10 @@
         <v>17036</v>
       </c>
       <c r="O128">
-        <v>693760</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+        <v>641825</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43228</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>12996</v>
       </c>
       <c r="C129">
-        <v>105124</v>
+        <v>52562</v>
       </c>
       <c r="D129">
         <v>27307</v>
@@ -6506,10 +6509,10 @@
         <v>17907</v>
       </c>
       <c r="O129">
-        <v>696918</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+        <v>644356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43229</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>14473</v>
       </c>
       <c r="C130">
-        <v>114234</v>
+        <v>57117</v>
       </c>
       <c r="D130">
         <v>30186</v>
@@ -6553,10 +6556,10 @@
         <v>20512</v>
       </c>
       <c r="O130">
-        <v>764904</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+        <v>707787</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43230</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>14403</v>
       </c>
       <c r="C131">
-        <v>116424</v>
+        <v>58212</v>
       </c>
       <c r="D131">
         <v>31335</v>
@@ -6600,10 +6603,10 @@
         <v>20666</v>
       </c>
       <c r="O131">
-        <v>784330</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+        <v>726118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43231</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>14890</v>
       </c>
       <c r="C132">
-        <v>121602</v>
+        <v>60801</v>
       </c>
       <c r="D132">
         <v>34368</v>
@@ -6647,10 +6650,10 @@
         <v>20119</v>
       </c>
       <c r="O132">
-        <v>806570</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+        <v>745769</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43232</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>13962</v>
       </c>
       <c r="C133">
-        <v>107530</v>
+        <v>53765</v>
       </c>
       <c r="D133">
         <v>30825</v>
@@ -6694,10 +6697,10 @@
         <v>19240</v>
       </c>
       <c r="O133">
-        <v>708941</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+        <v>655176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43233</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>7849</v>
       </c>
       <c r="C134">
-        <v>74142</v>
+        <v>37071</v>
       </c>
       <c r="D134">
         <v>16888</v>
@@ -6741,10 +6744,10 @@
         <v>15015</v>
       </c>
       <c r="O134">
-        <v>459030</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+        <v>421959</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43234</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>6889</v>
       </c>
       <c r="C135">
-        <v>67676</v>
+        <v>33838</v>
       </c>
       <c r="D135">
         <v>17170</v>
@@ -6788,10 +6791,10 @@
         <v>14508</v>
       </c>
       <c r="O135">
-        <v>440389</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+        <v>406551</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43235</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>8178</v>
       </c>
       <c r="C136">
-        <v>70082</v>
+        <v>35041</v>
       </c>
       <c r="D136">
         <v>18102</v>
@@ -6835,10 +6838,10 @@
         <v>15832</v>
       </c>
       <c r="O136">
-        <v>455413</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+        <v>420372</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43236</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>8453</v>
       </c>
       <c r="C137">
-        <v>73520</v>
+        <v>36760</v>
       </c>
       <c r="D137">
         <v>18219</v>
@@ -6882,10 +6885,10 @@
         <v>16358</v>
       </c>
       <c r="O137">
-        <v>465867</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+        <v>429107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43237</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>8345</v>
       </c>
       <c r="C138">
-        <v>73160</v>
+        <v>36580</v>
       </c>
       <c r="D138">
         <v>19409</v>
@@ -6929,10 +6932,10 @@
         <v>17664</v>
       </c>
       <c r="O138">
-        <v>493254</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+        <v>456674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43238</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>10325</v>
       </c>
       <c r="C139">
-        <v>96144</v>
+        <v>48072</v>
       </c>
       <c r="D139">
         <v>26504</v>
@@ -6976,10 +6979,10 @@
         <v>18004</v>
       </c>
       <c r="O139">
-        <v>652583</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+        <v>604511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43239</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>10239</v>
       </c>
       <c r="C140">
-        <v>89386</v>
+        <v>44693</v>
       </c>
       <c r="D140">
         <v>25298</v>
@@ -7023,10 +7026,10 @@
         <v>16132</v>
       </c>
       <c r="O140">
-        <v>632669</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+        <v>587976</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43240</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>2503</v>
       </c>
       <c r="C141">
-        <v>12034</v>
+        <v>6017</v>
       </c>
       <c r="D141">
         <v>7233</v>
@@ -7070,10 +7073,10 @@
         <v>4194</v>
       </c>
       <c r="O141">
-        <v>110826</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+        <v>104809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43241</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>1439</v>
       </c>
       <c r="C142">
-        <v>6948</v>
+        <v>3474</v>
       </c>
       <c r="D142">
         <v>3298</v>
@@ -7117,10 +7120,10 @@
         <v>3331</v>
       </c>
       <c r="O142">
-        <v>67634</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+        <v>64160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43242</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>8430</v>
       </c>
       <c r="C143">
-        <v>79506</v>
+        <v>39753</v>
       </c>
       <c r="D143">
         <v>18263</v>
@@ -7164,10 +7167,10 @@
         <v>15944</v>
       </c>
       <c r="O143">
-        <v>502385</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+        <v>462632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43243</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>9372</v>
       </c>
       <c r="C144">
-        <v>88494</v>
+        <v>44247</v>
       </c>
       <c r="D144">
         <v>19284</v>
@@ -7211,10 +7214,10 @@
         <v>15219</v>
       </c>
       <c r="O144">
-        <v>466866</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+        <v>422619</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43244</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>8033</v>
       </c>
       <c r="C145">
-        <v>62994</v>
+        <v>31497</v>
       </c>
       <c r="D145">
         <v>15225</v>
@@ -7258,10 +7261,10 @@
         <v>12869</v>
       </c>
       <c r="O145">
-        <v>384575</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+        <v>353078</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43245</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>3976</v>
       </c>
       <c r="C146">
-        <v>29468</v>
+        <v>14734</v>
       </c>
       <c r="D146">
         <v>13030</v>
@@ -7305,10 +7308,10 @@
         <v>6689</v>
       </c>
       <c r="O146">
-        <v>280987</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+        <v>266253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43246</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>4963</v>
       </c>
       <c r="C147">
-        <v>32144</v>
+        <v>16072</v>
       </c>
       <c r="D147">
         <v>16081</v>
@@ -7352,10 +7355,10 @@
         <v>8137</v>
       </c>
       <c r="O147">
-        <v>323481</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+        <v>307409</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43247</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>3399</v>
       </c>
       <c r="C148">
-        <v>23830</v>
+        <v>11915</v>
       </c>
       <c r="D148">
         <v>9653</v>
@@ -7399,10 +7402,10 @@
         <v>6894</v>
       </c>
       <c r="O148">
-        <v>250065</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+        <v>238150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43248</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>9213</v>
       </c>
       <c r="C149">
-        <v>85504</v>
+        <v>42752</v>
       </c>
       <c r="D149">
         <v>21757</v>
@@ -7446,10 +7449,10 @@
         <v>20147</v>
       </c>
       <c r="O149">
-        <v>595612</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+        <v>552860</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43249</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>8092</v>
       </c>
       <c r="C150">
-        <v>82536</v>
+        <v>41268</v>
       </c>
       <c r="D150">
         <v>18041</v>
@@ -7493,10 +7496,10 @@
         <v>15564</v>
       </c>
       <c r="O150">
-        <v>528096</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+        <v>486828</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>43250</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>7749</v>
       </c>
       <c r="C151">
-        <v>77390</v>
+        <v>38695</v>
       </c>
       <c r="D151">
         <v>17433</v>
@@ -7540,10 +7543,10 @@
         <v>15091</v>
       </c>
       <c r="O151">
-        <v>514128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+        <v>475433</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>43251</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>8399</v>
       </c>
       <c r="C152">
-        <v>81442</v>
+        <v>40721</v>
       </c>
       <c r="D152">
         <v>16728</v>
@@ -7587,10 +7590,10 @@
         <v>15853</v>
       </c>
       <c r="O152">
-        <v>502433</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+        <v>461712</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>43252</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>9502</v>
       </c>
       <c r="C153">
-        <v>84460</v>
+        <v>42230</v>
       </c>
       <c r="D153">
         <v>22261</v>
@@ -7634,10 +7637,10 @@
         <v>16079</v>
       </c>
       <c r="O153">
-        <v>564720</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+        <v>522490</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43253</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>11326</v>
       </c>
       <c r="C154">
-        <v>90226</v>
+        <v>45113</v>
       </c>
       <c r="D154">
         <v>23606</v>
@@ -7681,10 +7684,10 @@
         <v>19999</v>
       </c>
       <c r="O154">
-        <v>613453</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+        <v>568340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>43254</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>9616</v>
       </c>
       <c r="C155">
-        <v>75820</v>
+        <v>37910</v>
       </c>
       <c r="D155">
         <v>16973</v>
@@ -7728,10 +7731,10 @@
         <v>16311</v>
       </c>
       <c r="O155">
-        <v>487163</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+        <v>449253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>43255</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>7946</v>
       </c>
       <c r="C156">
-        <v>81532</v>
+        <v>40766</v>
       </c>
       <c r="D156">
         <v>16578</v>
@@ -7775,10 +7778,10 @@
         <v>16230</v>
       </c>
       <c r="O156">
-        <v>496132</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+        <v>455366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>43256</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>8562</v>
       </c>
       <c r="C157">
-        <v>84026</v>
+        <v>42013</v>
       </c>
       <c r="D157">
         <v>17367</v>
@@ -7822,10 +7825,10 @@
         <v>15327</v>
       </c>
       <c r="O157">
-        <v>515559</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+        <v>473546</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>43257</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>8857</v>
       </c>
       <c r="C158">
-        <v>78540</v>
+        <v>39270</v>
       </c>
       <c r="D158">
         <v>19085</v>
@@ -7869,10 +7872,10 @@
         <v>16212</v>
       </c>
       <c r="O158">
-        <v>511785</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+        <v>472515</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>43258</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>9250</v>
       </c>
       <c r="C159">
-        <v>83034</v>
+        <v>41517</v>
       </c>
       <c r="D159">
         <v>17435</v>
@@ -7916,10 +7919,10 @@
         <v>16195</v>
       </c>
       <c r="O159">
-        <v>521138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+        <v>479621</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>43259</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>12026</v>
       </c>
       <c r="C160">
-        <v>90060</v>
+        <v>45030</v>
       </c>
       <c r="D160">
         <v>22523</v>
@@ -7963,10 +7966,10 @@
         <v>16936</v>
       </c>
       <c r="O160">
-        <v>606090</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+        <v>561060</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>43260</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>11742</v>
       </c>
       <c r="C161">
-        <v>92320</v>
+        <v>46160</v>
       </c>
       <c r="D161">
         <v>25304</v>
@@ -8010,10 +8013,10 @@
         <v>23514</v>
       </c>
       <c r="O161">
-        <v>665173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+        <v>619013</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>43261</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>9579</v>
       </c>
       <c r="C162">
-        <v>80508</v>
+        <v>40254</v>
       </c>
       <c r="D162">
         <v>17909</v>
@@ -8057,10 +8060,10 @@
         <v>16411</v>
       </c>
       <c r="O162">
-        <v>527957</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+        <v>487703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>43262</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>9140</v>
       </c>
       <c r="C163">
-        <v>87338</v>
+        <v>43669</v>
       </c>
       <c r="D163">
         <v>19352</v>
@@ -8104,10 +8107,10 @@
         <v>14640</v>
       </c>
       <c r="O163">
-        <v>555208</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+        <v>511539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>43263</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>10272</v>
       </c>
       <c r="C164">
-        <v>91230</v>
+        <v>45615</v>
       </c>
       <c r="D164">
         <v>19872</v>
@@ -8151,10 +8154,10 @@
         <v>16741</v>
       </c>
       <c r="O164">
-        <v>576828</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+        <v>531213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>43264</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>10662</v>
       </c>
       <c r="C165">
-        <v>87716</v>
+        <v>43858</v>
       </c>
       <c r="D165">
         <v>18991</v>
@@ -8198,10 +8201,10 @@
         <v>16834</v>
       </c>
       <c r="O165">
-        <v>562637</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+        <v>518779</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>43265</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>10698</v>
       </c>
       <c r="C166">
-        <v>93458</v>
+        <v>46729</v>
       </c>
       <c r="D166">
         <v>19217</v>
@@ -8245,10 +8248,10 @@
         <v>17367</v>
       </c>
       <c r="O166">
-        <v>592310</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+        <v>545581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>43266</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>10826</v>
       </c>
       <c r="C167">
-        <v>107562</v>
+        <v>53781</v>
       </c>
       <c r="D167">
         <v>23475</v>
@@ -8292,10 +8295,10 @@
         <v>19745</v>
       </c>
       <c r="O167">
-        <v>661841</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+        <v>608060</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>43267</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>13397</v>
       </c>
       <c r="C168">
-        <v>113210</v>
+        <v>56605</v>
       </c>
       <c r="D168">
         <v>24619</v>
@@ -8339,10 +8342,10 @@
         <v>22492</v>
       </c>
       <c r="O168">
-        <v>726589</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+        <v>669984</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>43268</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>9887</v>
       </c>
       <c r="C169">
-        <v>96778</v>
+        <v>48389</v>
       </c>
       <c r="D169">
         <v>19362</v>
@@ -8386,10 +8389,10 @@
         <v>18472</v>
       </c>
       <c r="O169">
-        <v>598647</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+        <v>550258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43269</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>9750</v>
       </c>
       <c r="C170">
-        <v>97188</v>
+        <v>48594</v>
       </c>
       <c r="D170">
         <v>20492</v>
@@ -8433,10 +8436,10 @@
         <v>16550</v>
       </c>
       <c r="O170">
-        <v>616153</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+        <v>567559</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>43270</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>10047</v>
       </c>
       <c r="C171">
-        <v>97512</v>
+        <v>48756</v>
       </c>
       <c r="D171">
         <v>20051</v>
@@ -8480,10 +8483,10 @@
         <v>16811</v>
       </c>
       <c r="O171">
-        <v>614746</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+        <v>565990</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>43271</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>9281</v>
       </c>
       <c r="C172">
-        <v>96556</v>
+        <v>48278</v>
       </c>
       <c r="D172">
         <v>20955</v>
@@ -8527,10 +8530,10 @@
         <v>18591</v>
       </c>
       <c r="O172">
-        <v>622293</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+        <v>574015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>43272</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>10169</v>
       </c>
       <c r="C173">
-        <v>98840</v>
+        <v>49420</v>
       </c>
       <c r="D173">
         <v>22060</v>
@@ -8574,10 +8577,10 @@
         <v>17524</v>
       </c>
       <c r="O173">
-        <v>647762</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+        <v>598342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>43273</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>12411</v>
       </c>
       <c r="C174">
-        <v>105166</v>
+        <v>52583</v>
       </c>
       <c r="D174">
         <v>27158</v>
@@ -8621,10 +8624,10 @@
         <v>19210</v>
       </c>
       <c r="O174">
-        <v>711644</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+        <v>659061</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>43274</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>14309</v>
       </c>
       <c r="C175">
-        <v>119612</v>
+        <v>59806</v>
       </c>
       <c r="D175">
         <v>31001</v>
@@ -8668,10 +8671,10 @@
         <v>21826</v>
       </c>
       <c r="O175">
-        <v>801288</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+        <v>741482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>43275</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>9538</v>
       </c>
       <c r="C176">
-        <v>100508</v>
+        <v>50254</v>
       </c>
       <c r="D176">
         <v>19650</v>
@@ -8715,10 +8718,10 @@
         <v>17824</v>
       </c>
       <c r="O176">
-        <v>640542</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+        <v>590288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>43276</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>11157</v>
       </c>
       <c r="C177">
-        <v>113016</v>
+        <v>56508</v>
       </c>
       <c r="D177">
         <v>19840</v>
@@ -8762,10 +8765,10 @@
         <v>16205</v>
       </c>
       <c r="O177">
-        <v>658716</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+        <v>602208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43277</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>11134</v>
       </c>
       <c r="C178">
-        <v>110096</v>
+        <v>55048</v>
       </c>
       <c r="D178">
         <v>21312</v>
@@ -8809,10 +8812,10 @@
         <v>17620</v>
       </c>
       <c r="O178">
-        <v>665089</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+        <v>610041</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>43278</v>
       </c>
@@ -8820,7 +8823,7 @@
         <v>11470</v>
       </c>
       <c r="C179">
-        <v>110646</v>
+        <v>55323</v>
       </c>
       <c r="D179">
         <v>21544</v>
@@ -8856,10 +8859,10 @@
         <v>18319</v>
       </c>
       <c r="O179">
-        <v>666884</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+        <v>611561</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>43279</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>12771</v>
       </c>
       <c r="C180">
-        <v>119274</v>
+        <v>59637</v>
       </c>
       <c r="D180">
         <v>23787</v>
@@ -8903,10 +8906,10 @@
         <v>22242</v>
       </c>
       <c r="O180">
-        <v>736405</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+        <v>676768</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>43280</v>
       </c>
@@ -8914,7 +8917,7 @@
         <v>17792</v>
       </c>
       <c r="C181">
-        <v>123808</v>
+        <v>61904</v>
       </c>
       <c r="D181">
         <v>31823</v>
@@ -8950,10 +8953,10 @@
         <v>23120</v>
       </c>
       <c r="O181">
-        <v>833844</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+        <v>771940</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>43281</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>23312</v>
       </c>
       <c r="C182">
-        <v>141220</v>
+        <v>70610</v>
       </c>
       <c r="D182">
         <v>46631</v>
@@ -8997,10 +9000,10 @@
         <v>34794</v>
       </c>
       <c r="O182">
-        <v>1007190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+        <v>936580</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>43282</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>15241</v>
       </c>
       <c r="C183">
-        <v>120096</v>
+        <v>60048</v>
       </c>
       <c r="D183">
         <v>29286</v>
@@ -9044,10 +9047,10 @@
         <v>26392</v>
       </c>
       <c r="O183">
-        <v>775276</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+        <v>715228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>43283</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>16357</v>
       </c>
       <c r="C184">
-        <v>122026</v>
+        <v>61013</v>
       </c>
       <c r="D184">
         <v>28219</v>
@@ -9091,10 +9094,10 @@
         <v>23686</v>
       </c>
       <c r="O184">
-        <v>775422</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+        <v>714409</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>43284</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>23474</v>
       </c>
       <c r="C185">
-        <v>122412</v>
+        <v>61206</v>
       </c>
       <c r="D185">
         <v>31672</v>
@@ -9138,10 +9141,10 @@
         <v>23079</v>
       </c>
       <c r="O185">
-        <v>795089</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+        <v>733883</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>43285</v>
       </c>
@@ -9149,7 +9152,7 @@
         <v>23335</v>
       </c>
       <c r="C186">
-        <v>124854</v>
+        <v>62427</v>
       </c>
       <c r="D186">
         <v>31885</v>
@@ -9185,10 +9188,10 @@
         <v>23604</v>
       </c>
       <c r="O186">
-        <v>815585</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+        <v>753158</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>43286</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>20842</v>
       </c>
       <c r="C187">
-        <v>133774</v>
+        <v>66887</v>
       </c>
       <c r="D187">
         <v>33054</v>
@@ -9232,10 +9235,10 @@
         <v>24167</v>
       </c>
       <c r="O187">
-        <v>842185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+        <v>775298</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>43287</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>25731</v>
       </c>
       <c r="C188">
-        <v>142530</v>
+        <v>71265</v>
       </c>
       <c r="D188">
         <v>37022</v>
@@ -9279,10 +9282,10 @@
         <v>26928</v>
       </c>
       <c r="O188">
-        <v>953976</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+        <v>882711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>43288</v>
       </c>
@@ -9290,7 +9293,7 @@
         <v>32759</v>
       </c>
       <c r="C189">
-        <v>167438</v>
+        <v>83719</v>
       </c>
       <c r="D189">
         <v>46500</v>
@@ -9326,10 +9329,10 @@
         <v>35504</v>
       </c>
       <c r="O189">
-        <v>1119005</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1035286</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>43289</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>21777</v>
       </c>
       <c r="C190">
-        <v>148618</v>
+        <v>74309</v>
       </c>
       <c r="D190">
         <v>35044</v>
@@ -9373,10 +9376,10 @@
         <v>23605</v>
       </c>
       <c r="O190">
-        <v>951251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+        <v>876942</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>43290</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>24175</v>
       </c>
       <c r="C191">
-        <v>148854</v>
+        <v>74427</v>
       </c>
       <c r="D191">
         <v>36275</v>
@@ -9420,10 +9423,10 @@
         <v>24435</v>
       </c>
       <c r="O191">
-        <v>834583</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+        <v>760156</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>43291</v>
       </c>
@@ -9431,7 +9434,7 @@
         <v>26109</v>
       </c>
       <c r="C192">
-        <v>147718</v>
+        <v>73859</v>
       </c>
       <c r="D192">
         <v>36878</v>
@@ -9467,10 +9470,10 @@
         <v>24857</v>
       </c>
       <c r="O192">
-        <v>909616</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+        <v>835757</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>43292</v>
       </c>
@@ -9478,7 +9481,7 @@
         <v>25415</v>
       </c>
       <c r="C193">
-        <v>165904</v>
+        <v>82952</v>
       </c>
       <c r="D193">
         <v>37091</v>
@@ -9514,10 +9517,10 @@
         <v>26183</v>
       </c>
       <c r="O193">
-        <v>999009</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+        <v>916057</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>43293</v>
       </c>
@@ -9525,7 +9528,7 @@
         <v>29773</v>
       </c>
       <c r="C194">
-        <v>168304</v>
+        <v>84152</v>
       </c>
       <c r="D194">
         <v>41176</v>
@@ -9561,10 +9564,10 @@
         <v>28652</v>
       </c>
       <c r="O194">
-        <v>1066182</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+        <v>982030</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>43294</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>35281</v>
       </c>
       <c r="C195">
-        <v>200812</v>
+        <v>100406</v>
       </c>
       <c r="D195">
         <v>53853</v>
@@ -9608,10 +9611,10 @@
         <v>32837</v>
       </c>
       <c r="O195">
-        <v>1270329</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1169923</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>43295</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>37721</v>
       </c>
       <c r="C196">
-        <v>233720</v>
+        <v>116860</v>
       </c>
       <c r="D196">
         <v>61988</v>
@@ -9655,10 +9658,10 @@
         <v>37666</v>
       </c>
       <c r="O196">
-        <v>1425729</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1308869</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>43296</v>
       </c>
@@ -9666,7 +9669,7 @@
         <v>31118</v>
       </c>
       <c r="C197">
-        <v>208334</v>
+        <v>104167</v>
       </c>
       <c r="D197">
         <v>46796</v>
@@ -9702,10 +9705,10 @@
         <v>33325</v>
       </c>
       <c r="O197">
-        <v>1308132</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1203965</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>43297</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>28847</v>
       </c>
       <c r="C198">
-        <v>187230</v>
+        <v>93615</v>
       </c>
       <c r="D198">
         <v>45914</v>
@@ -9749,10 +9752,10 @@
         <v>29873</v>
       </c>
       <c r="O198">
-        <v>1163281</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1069666</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>43298</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>20533</v>
       </c>
       <c r="C199">
-        <v>186264</v>
+        <v>93132</v>
       </c>
       <c r="D199">
         <v>46033</v>
@@ -9796,10 +9799,10 @@
         <v>26219</v>
       </c>
       <c r="O199">
-        <v>1163187</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1070055</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>43299</v>
       </c>
@@ -9807,7 +9810,7 @@
         <v>21952</v>
       </c>
       <c r="C200">
-        <v>191796</v>
+        <v>95898</v>
       </c>
       <c r="D200">
         <v>44562</v>
@@ -9843,10 +9846,10 @@
         <v>27622</v>
       </c>
       <c r="O200">
-        <v>1168637</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1072739</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>43300</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>22817</v>
       </c>
       <c r="C201">
-        <v>196668</v>
+        <v>98334</v>
       </c>
       <c r="D201">
         <v>47368</v>
@@ -9890,10 +9893,10 @@
         <v>30166</v>
       </c>
       <c r="O201">
-        <v>1203477</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1105143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>43301</v>
       </c>
@@ -9901,7 +9904,7 @@
         <v>26944</v>
       </c>
       <c r="C202">
-        <v>208324</v>
+        <v>104162</v>
       </c>
       <c r="D202">
         <v>53099</v>
@@ -9937,10 +9940,10 @@
         <v>30376</v>
       </c>
       <c r="O202">
-        <v>1294408</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1190246</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>43302</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>28175</v>
       </c>
       <c r="C203">
-        <v>224180</v>
+        <v>112090</v>
       </c>
       <c r="D203">
         <v>63490</v>
@@ -9984,10 +9987,10 @@
         <v>36901</v>
       </c>
       <c r="O203">
-        <v>1400543</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1288453</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>43303</v>
       </c>
@@ -9995,7 +9998,7 @@
         <v>25699</v>
       </c>
       <c r="C204">
-        <v>215226</v>
+        <v>107613</v>
       </c>
       <c r="D204">
         <v>50742</v>
@@ -10031,10 +10034,10 @@
         <v>30306</v>
       </c>
       <c r="O204">
-        <v>1261855</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1154242</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>43304</v>
       </c>
@@ -10042,7 +10045,7 @@
         <v>27309</v>
       </c>
       <c r="C205">
-        <v>222802</v>
+        <v>111401</v>
       </c>
       <c r="D205">
         <v>52795</v>
@@ -10078,10 +10081,10 @@
         <v>31064</v>
       </c>
       <c r="O205">
-        <v>1307305</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1195904</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>43305</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>27915</v>
       </c>
       <c r="C206">
-        <v>216438</v>
+        <v>108219</v>
       </c>
       <c r="D206">
         <v>52708</v>
@@ -10125,10 +10128,10 @@
         <v>29648</v>
       </c>
       <c r="O206">
-        <v>1311766</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1203547</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>43306</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>27880</v>
       </c>
       <c r="C207">
-        <v>216080</v>
+        <v>108040</v>
       </c>
       <c r="D207">
         <v>52197</v>
@@ -10172,10 +10175,10 @@
         <v>31558</v>
       </c>
       <c r="O207">
-        <v>1315661</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1207621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>43307</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>28066</v>
       </c>
       <c r="C208">
-        <v>219482</v>
+        <v>109741</v>
       </c>
       <c r="D208">
         <v>51090</v>
@@ -10219,10 +10222,10 @@
         <v>31789</v>
       </c>
       <c r="O208">
-        <v>1303641</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1193900</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>43308</v>
       </c>
@@ -10230,7 +10233,7 @@
         <v>28918</v>
       </c>
       <c r="C209">
-        <v>224122</v>
+        <v>112061</v>
       </c>
       <c r="D209">
         <v>61251</v>
@@ -10266,10 +10269,10 @@
         <v>34882</v>
       </c>
       <c r="O209">
-        <v>1386208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1274147</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>43309</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>34735</v>
       </c>
       <c r="C210">
-        <v>231868</v>
+        <v>115934</v>
       </c>
       <c r="D210">
         <v>66424</v>
@@ -10313,10 +10316,10 @@
         <v>38910</v>
       </c>
       <c r="O210">
-        <v>1468838</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1352904</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>43310</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>26891</v>
       </c>
       <c r="C211">
-        <v>189026</v>
+        <v>94513</v>
       </c>
       <c r="D211">
         <v>50258</v>
@@ -10360,10 +10363,10 @@
         <v>27047</v>
       </c>
       <c r="O211">
-        <v>1247026</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1152513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>43311</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>27483</v>
       </c>
       <c r="C212">
-        <v>195038</v>
+        <v>97519</v>
       </c>
       <c r="D212">
         <v>50773</v>
@@ -10407,10 +10410,10 @@
         <v>30333</v>
       </c>
       <c r="O212">
-        <v>1231536</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1134017</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>43312</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>28302</v>
       </c>
       <c r="C213">
-        <v>208956</v>
+        <v>104478</v>
       </c>
       <c r="D213">
         <v>50369</v>
@@ -10454,10 +10457,10 @@
         <v>27214</v>
       </c>
       <c r="O213">
-        <v>1248592</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1144114</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>43313</v>
       </c>
@@ -10465,7 +10468,7 @@
         <v>27216</v>
       </c>
       <c r="C214">
-        <v>205506</v>
+        <v>102753</v>
       </c>
       <c r="D214">
         <v>51298</v>
@@ -10501,10 +10504,10 @@
         <v>28126</v>
       </c>
       <c r="O214">
-        <v>1271484</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1168731</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>43314</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>29399</v>
       </c>
       <c r="C215">
-        <v>210508</v>
+        <v>105254</v>
       </c>
       <c r="D215">
         <v>51976</v>
@@ -10548,10 +10551,10 @@
         <v>28597</v>
       </c>
       <c r="O215">
-        <v>1288298</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1183044</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>43315</v>
       </c>
@@ -10559,7 +10562,7 @@
         <v>32027</v>
       </c>
       <c r="C216">
-        <v>223122</v>
+        <v>111561</v>
       </c>
       <c r="D216">
         <v>56493</v>
@@ -10595,10 +10598,10 @@
         <v>32167</v>
       </c>
       <c r="O216">
-        <v>1383371</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1271810</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>43316</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>36829</v>
       </c>
       <c r="C217">
-        <v>242638</v>
+        <v>121319</v>
       </c>
       <c r="D217">
         <v>64677</v>
@@ -10642,10 +10645,10 @@
         <v>33681</v>
       </c>
       <c r="O217">
-        <v>1499884</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1378565</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>43317</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>34919</v>
       </c>
       <c r="C218">
-        <v>237692</v>
+        <v>118846</v>
       </c>
       <c r="D218">
         <v>64314</v>
@@ -10689,10 +10692,10 @@
         <v>32820</v>
       </c>
       <c r="O218">
-        <v>1457524</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1338678</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>43318</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>23271</v>
       </c>
       <c r="C219">
-        <v>181038</v>
+        <v>90519</v>
       </c>
       <c r="D219">
         <v>47843</v>
@@ -10736,10 +10739,10 @@
         <v>21107</v>
       </c>
       <c r="O219">
-        <v>1233912</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1143393</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>43319</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>34944</v>
       </c>
       <c r="C220">
-        <v>254812</v>
+        <v>127406</v>
       </c>
       <c r="D220">
         <v>63476</v>
@@ -10783,10 +10786,10 @@
         <v>31737</v>
       </c>
       <c r="O220">
-        <v>1483812</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1356406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>43320</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>36254</v>
       </c>
       <c r="C221">
-        <v>245364</v>
+        <v>122682</v>
       </c>
       <c r="D221">
         <v>68131</v>
@@ -10830,10 +10833,10 @@
         <v>30735</v>
       </c>
       <c r="O221">
-        <v>1490359</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1367677</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>43321</v>
       </c>
@@ -10841,7 +10844,7 @@
         <v>34320</v>
       </c>
       <c r="C222">
-        <v>242784</v>
+        <v>121392</v>
       </c>
       <c r="D222">
         <v>66562</v>
@@ -10877,10 +10880,10 @@
         <v>31349</v>
       </c>
       <c r="O222">
-        <v>1482403</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1361011</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>43322</v>
       </c>
@@ -10888,7 +10891,7 @@
         <v>34931</v>
       </c>
       <c r="C223">
-        <v>245780</v>
+        <v>122890</v>
       </c>
       <c r="D223">
         <v>69822</v>
@@ -10924,10 +10927,10 @@
         <v>32007</v>
       </c>
       <c r="O223">
-        <v>1517068</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1394178</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>43323</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>38392</v>
       </c>
       <c r="C224">
-        <v>254896</v>
+        <v>127448</v>
       </c>
       <c r="D224">
         <v>71531</v>
@@ -10971,10 +10974,10 @@
         <v>35392</v>
       </c>
       <c r="O224">
-        <v>1577272</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1449824</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>43324</v>
       </c>
@@ -10982,7 +10985,7 @@
         <v>37748</v>
       </c>
       <c r="C225">
-        <v>248714</v>
+        <v>124357</v>
       </c>
       <c r="D225">
         <v>66089</v>
@@ -11018,10 +11021,10 @@
         <v>31272</v>
       </c>
       <c r="O225">
-        <v>1516195</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1391838</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>43325</v>
       </c>
@@ -11029,7 +11032,7 @@
         <v>37390</v>
       </c>
       <c r="C226">
-        <v>257452</v>
+        <v>128726</v>
       </c>
       <c r="D226">
         <v>65571</v>
@@ -11065,10 +11068,10 @@
         <v>29844</v>
       </c>
       <c r="O226">
-        <v>1535546</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1406820</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>43326</v>
       </c>
@@ -11076,7 +11079,7 @@
         <v>37777</v>
       </c>
       <c r="C227">
-        <v>273890</v>
+        <v>136945</v>
       </c>
       <c r="D227">
         <v>69746</v>
@@ -11112,10 +11115,10 @@
         <v>32079</v>
       </c>
       <c r="O227">
-        <v>1628057</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1491112</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>43327</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v>37104</v>
       </c>
       <c r="C228">
-        <v>259740</v>
+        <v>129870</v>
       </c>
       <c r="D228">
         <v>67057</v>
@@ -11159,10 +11162,10 @@
         <v>30894</v>
       </c>
       <c r="O228">
-        <v>1554518</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1424648</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>43328</v>
       </c>
@@ -11170,7 +11173,7 @@
         <v>36651</v>
       </c>
       <c r="C229">
-        <v>258004</v>
+        <v>129002</v>
       </c>
       <c r="D229">
         <v>62000</v>
@@ -11206,10 +11209,10 @@
         <v>31635</v>
       </c>
       <c r="O229">
-        <v>1507286</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1378284</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>43329</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>35916</v>
       </c>
       <c r="C230">
-        <v>257328</v>
+        <v>128664</v>
       </c>
       <c r="D230">
         <v>64578</v>
@@ -11253,10 +11256,10 @@
         <v>35858</v>
       </c>
       <c r="O230">
-        <v>1554403</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1425739</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>43330</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v>34820</v>
       </c>
       <c r="C231">
-        <v>244172</v>
+        <v>122086</v>
       </c>
       <c r="D231">
         <v>63443</v>
@@ -11300,10 +11303,10 @@
         <v>35964</v>
       </c>
       <c r="O231">
-        <v>1519987</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1397901</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>43331</v>
       </c>
@@ -11311,7 +11314,7 @@
         <v>30599</v>
       </c>
       <c r="C232">
-        <v>230518</v>
+        <v>115259</v>
       </c>
       <c r="D232">
         <v>52937</v>
@@ -11347,10 +11350,10 @@
         <v>30075</v>
       </c>
       <c r="O232">
-        <v>1388701</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1273442</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>43332</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>29778</v>
       </c>
       <c r="C233">
-        <v>230838</v>
+        <v>115419</v>
       </c>
       <c r="D233">
         <v>52183</v>
@@ -11394,10 +11397,10 @@
         <v>28110</v>
       </c>
       <c r="O233">
-        <v>1375852</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1260433</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>43333</v>
       </c>
@@ -11405,7 +11408,7 @@
         <v>29280</v>
       </c>
       <c r="C234">
-        <v>226110</v>
+        <v>113055</v>
       </c>
       <c r="D234">
         <v>48941</v>
@@ -11441,10 +11444,10 @@
         <v>27667</v>
       </c>
       <c r="O234">
-        <v>1343155</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1230100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>43334</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>28036</v>
       </c>
       <c r="C235">
-        <v>215542</v>
+        <v>107771</v>
       </c>
       <c r="D235">
         <v>49857</v>
@@ -11488,10 +11491,10 @@
         <v>27598</v>
       </c>
       <c r="O235">
-        <v>1305803</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1198032</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>43335</v>
       </c>
@@ -11499,7 +11502,7 @@
         <v>26705</v>
       </c>
       <c r="C236">
-        <v>209488</v>
+        <v>104744</v>
       </c>
       <c r="D236">
         <v>47198</v>
@@ -11535,10 +11538,10 @@
         <v>27995</v>
       </c>
       <c r="O236">
-        <v>1292364</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1187620</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>43336</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>24828</v>
       </c>
       <c r="C237">
-        <v>199830</v>
+        <v>99915</v>
       </c>
       <c r="D237">
         <v>45892</v>
@@ -11582,10 +11585,10 @@
         <v>29733</v>
       </c>
       <c r="O237">
-        <v>1245349</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1145434</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>43337</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>22916</v>
       </c>
       <c r="C238">
-        <v>186814</v>
+        <v>93407</v>
       </c>
       <c r="D238">
         <v>41466</v>
@@ -11629,10 +11632,10 @@
         <v>26445</v>
       </c>
       <c r="O238">
-        <v>1132469</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1039062</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>43338</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>22166</v>
       </c>
       <c r="C239">
-        <v>161896</v>
+        <v>80948</v>
       </c>
       <c r="D239">
         <v>34537</v>
@@ -11676,10 +11679,10 @@
         <v>23071</v>
       </c>
       <c r="O239">
-        <v>989373</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+        <v>908425</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>43339</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>20366</v>
       </c>
       <c r="C240">
-        <v>163576</v>
+        <v>81788</v>
       </c>
       <c r="D240">
         <v>30851</v>
@@ -11723,10 +11726,10 @@
         <v>21969</v>
       </c>
       <c r="O240">
-        <v>945282</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+        <v>863494</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>43340</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>18652</v>
       </c>
       <c r="C241">
-        <v>157178</v>
+        <v>78589</v>
       </c>
       <c r="D241">
         <v>30839</v>
@@ -11770,10 +11773,10 @@
         <v>22156</v>
       </c>
       <c r="O241">
-        <v>930761</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+        <v>852172</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>43341</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>43342</v>
       </c>
@@ -11828,7 +11831,7 @@
         <v>15925</v>
       </c>
       <c r="C243">
-        <v>137934</v>
+        <v>68967</v>
       </c>
       <c r="D243">
         <v>27855</v>
@@ -11864,10 +11867,10 @@
         <v>19119</v>
       </c>
       <c r="O243">
-        <v>832910</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+        <v>763943</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>43343</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>16934</v>
       </c>
       <c r="C244">
-        <v>134628</v>
+        <v>67314</v>
       </c>
       <c r="D244">
         <v>29238</v>
@@ -11911,10 +11914,10 @@
         <v>20871</v>
       </c>
       <c r="O244">
-        <v>835198</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+        <v>767884</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>43344</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>18807</v>
       </c>
       <c r="C245">
-        <v>141060</v>
+        <v>70530</v>
       </c>
       <c r="D245">
         <v>34031</v>
@@ -11958,10 +11961,10 @@
         <v>27637</v>
       </c>
       <c r="O245">
-        <v>972586</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+        <v>902056</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>43345</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>14377</v>
       </c>
       <c r="C246">
-        <v>114786</v>
+        <v>57393</v>
       </c>
       <c r="D246">
         <v>23738</v>
@@ -12005,10 +12008,10 @@
         <v>19684</v>
       </c>
       <c r="O246">
-        <v>779164</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+        <v>721771</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>43346</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>14490</v>
       </c>
       <c r="C247">
-        <v>122606</v>
+        <v>61303</v>
       </c>
       <c r="D247">
         <v>24022</v>
@@ -12052,10 +12055,10 @@
         <v>21022</v>
       </c>
       <c r="O247">
-        <v>798995</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+        <v>737692</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>43347</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>10506</v>
       </c>
       <c r="C248">
-        <v>79092</v>
+        <v>39546</v>
       </c>
       <c r="D248">
         <v>20556</v>
@@ -12099,10 +12102,10 @@
         <v>16267</v>
       </c>
       <c r="O248">
-        <v>521179</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+        <v>481633</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>43348</v>
       </c>
@@ -12110,7 +12113,7 @@
         <v>12228</v>
       </c>
       <c r="C249">
-        <v>90662</v>
+        <v>45331</v>
       </c>
       <c r="D249">
         <v>21392</v>
@@ -12146,10 +12149,10 @@
         <v>17492</v>
       </c>
       <c r="O249">
-        <v>708967</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+        <v>663636</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>43349</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>13836</v>
       </c>
       <c r="C250">
-        <v>117754</v>
+        <v>58877</v>
       </c>
       <c r="D250">
         <v>25333</v>
@@ -12193,10 +12196,10 @@
         <v>19411</v>
       </c>
       <c r="O250">
-        <v>796018</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+        <v>737141</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>43350</v>
       </c>
@@ -12204,7 +12207,7 @@
         <v>15479</v>
       </c>
       <c r="C251">
-        <v>133356</v>
+        <v>66678</v>
       </c>
       <c r="D251">
         <v>29346</v>
@@ -12240,10 +12243,10 @@
         <v>22302</v>
       </c>
       <c r="O251">
-        <v>881562</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+        <v>814884</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>43351</v>
       </c>
@@ -12251,7 +12254,7 @@
         <v>17684</v>
       </c>
       <c r="C252">
-        <v>141828</v>
+        <v>70914</v>
       </c>
       <c r="D252">
         <v>32343</v>
@@ -12287,10 +12290,10 @@
         <v>26106</v>
       </c>
       <c r="O252">
-        <v>944257</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+        <v>873343</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>43352</v>
       </c>
@@ -12298,7 +12301,7 @@
         <v>11054</v>
       </c>
       <c r="C253">
-        <v>101686</v>
+        <v>50843</v>
       </c>
       <c r="D253">
         <v>20276</v>
@@ -12334,10 +12337,10 @@
         <v>15724</v>
       </c>
       <c r="O253">
-        <v>707294</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+        <v>656451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>43353</v>
       </c>
@@ -12345,7 +12348,7 @@
         <v>12344</v>
       </c>
       <c r="C254">
-        <v>115430</v>
+        <v>57715</v>
       </c>
       <c r="D254">
         <v>22420</v>
@@ -12381,10 +12384,10 @@
         <v>17059</v>
       </c>
       <c r="O254">
-        <v>724130</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+        <v>666415</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>43354</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>12617</v>
       </c>
       <c r="C255">
-        <v>118268</v>
+        <v>59134</v>
       </c>
       <c r="D255">
         <v>22863</v>
@@ -12428,10 +12431,10 @@
         <v>17796</v>
       </c>
       <c r="O255">
-        <v>730710</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+        <v>671576</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>43355</v>
       </c>
@@ -12439,7 +12442,7 @@
         <v>12168</v>
       </c>
       <c r="C256">
-        <v>117780</v>
+        <v>58890</v>
       </c>
       <c r="D256">
         <v>23165</v>
@@ -12475,10 +12478,10 @@
         <v>18660</v>
       </c>
       <c r="O256">
-        <v>751471</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+        <v>692581</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>43356</v>
       </c>
@@ -12486,7 +12489,7 @@
         <v>12505</v>
       </c>
       <c r="C257">
-        <v>120942</v>
+        <v>60471</v>
       </c>
       <c r="D257">
         <v>23110</v>
@@ -12522,10 +12525,10 @@
         <v>18920</v>
       </c>
       <c r="O257">
-        <v>756466</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+        <v>695995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>43357</v>
       </c>
@@ -12533,7 +12536,7 @@
         <v>13977</v>
       </c>
       <c r="C258">
-        <v>123368</v>
+        <v>61684</v>
       </c>
       <c r="D258">
         <v>25123</v>
@@ -12569,10 +12572,10 @@
         <v>19651</v>
       </c>
       <c r="O258">
-        <v>809133</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+        <v>747449</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>43358</v>
       </c>
@@ -12580,7 +12583,7 @@
         <v>14229</v>
       </c>
       <c r="C259">
-        <v>129796</v>
+        <v>64898</v>
       </c>
       <c r="D259">
         <v>26255</v>
@@ -12616,10 +12619,10 @@
         <v>22151</v>
       </c>
       <c r="O259">
-        <v>826734</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+        <v>761836</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>43359</v>
       </c>
@@ -12627,7 +12630,7 @@
         <v>10650</v>
       </c>
       <c r="C260">
-        <v>105590</v>
+        <v>52795</v>
       </c>
       <c r="D260">
         <v>19671</v>
@@ -12663,10 +12666,10 @@
         <v>17697</v>
       </c>
       <c r="O260">
-        <v>666310</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+        <v>613515</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>43360</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>10378</v>
       </c>
       <c r="C261">
-        <v>107162</v>
+        <v>53581</v>
       </c>
       <c r="D261">
         <v>20026</v>
@@ -12710,10 +12713,10 @@
         <v>17374</v>
       </c>
       <c r="O261">
-        <v>657588</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+        <v>604007</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>43361</v>
       </c>
@@ -12721,7 +12724,7 @@
         <v>9383</v>
       </c>
       <c r="C262">
-        <v>105554</v>
+        <v>52777</v>
       </c>
       <c r="D262">
         <v>19494</v>
@@ -12757,10 +12760,10 @@
         <v>17290</v>
       </c>
       <c r="O262">
-        <v>642817</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+        <v>590040</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>43362</v>
       </c>
@@ -12768,7 +12771,7 @@
         <v>10048</v>
       </c>
       <c r="C263">
-        <v>102758</v>
+        <v>51379</v>
       </c>
       <c r="D263">
         <v>19371</v>
@@ -12804,10 +12807,10 @@
         <v>17009</v>
       </c>
       <c r="O263">
-        <v>639468</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+        <v>588089</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>43363</v>
       </c>
@@ -12815,7 +12818,7 @@
         <v>10160</v>
       </c>
       <c r="C264">
-        <v>100632</v>
+        <v>50316</v>
       </c>
       <c r="D264">
         <v>19577</v>
@@ -12851,10 +12854,10 @@
         <v>16530</v>
       </c>
       <c r="O264">
-        <v>646538</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+        <v>596222</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>43364</v>
       </c>
@@ -12862,7 +12865,7 @@
         <v>12064</v>
       </c>
       <c r="C265">
-        <v>113150</v>
+        <v>56575</v>
       </c>
       <c r="D265">
         <v>21869</v>
@@ -12898,10 +12901,10 @@
         <v>18471</v>
       </c>
       <c r="O265">
-        <v>711744</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+        <v>655169</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>43365</v>
       </c>
@@ -12909,7 +12912,7 @@
         <v>13661</v>
       </c>
       <c r="C266">
-        <v>115628</v>
+        <v>57814</v>
       </c>
       <c r="D266">
         <v>23215</v>
@@ -12945,10 +12948,10 @@
         <v>19340</v>
       </c>
       <c r="O266">
-        <v>734701</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+        <v>676887</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>43366</v>
       </c>
@@ -12956,7 +12959,7 @@
         <v>9593</v>
       </c>
       <c r="C267">
-        <v>96758</v>
+        <v>48379</v>
       </c>
       <c r="D267">
         <v>17458</v>
@@ -12992,10 +12995,10 @@
         <v>15331</v>
       </c>
       <c r="O267">
-        <v>590061</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+        <v>541682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>43367</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>9718</v>
       </c>
       <c r="C268">
-        <v>87930</v>
+        <v>43965</v>
       </c>
       <c r="D268">
         <v>16581</v>
@@ -13039,10 +13042,10 @@
         <v>15464</v>
       </c>
       <c r="O268">
-        <v>543529</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+        <v>499564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>43368</v>
       </c>
@@ -13050,7 +13053,7 @@
         <v>9655</v>
       </c>
       <c r="C269">
-        <v>89050</v>
+        <v>44525</v>
       </c>
       <c r="D269">
         <v>17352</v>
@@ -13086,10 +13089,10 @@
         <v>18733</v>
       </c>
       <c r="O269">
-        <v>555686</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+        <v>511161</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>43369</v>
       </c>
@@ -13097,7 +13100,7 @@
         <v>7780</v>
       </c>
       <c r="C270">
-        <v>74470</v>
+        <v>37235</v>
       </c>
       <c r="D270">
         <v>13968</v>
@@ -13133,10 +13136,10 @@
         <v>13588</v>
       </c>
       <c r="O270">
-        <v>460512</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+        <v>423277</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>43370</v>
       </c>
@@ -13144,7 +13147,7 @@
         <v>9600</v>
       </c>
       <c r="C271">
-        <v>84906</v>
+        <v>42453</v>
       </c>
       <c r="D271">
         <v>16715</v>
@@ -13180,10 +13183,10 @@
         <v>14780</v>
       </c>
       <c r="O271">
-        <v>536819</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+        <v>494366</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>43371</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>11379</v>
       </c>
       <c r="C272">
-        <v>89668</v>
+        <v>44834</v>
       </c>
       <c r="D272">
         <v>20926</v>
@@ -13227,10 +13230,10 @@
         <v>16121</v>
       </c>
       <c r="O272">
-        <v>598963</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+        <v>554129</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>43372</v>
       </c>
@@ -13238,7 +13241,7 @@
         <v>12269</v>
       </c>
       <c r="C273">
-        <v>95178</v>
+        <v>47589</v>
       </c>
       <c r="D273">
         <v>22813</v>
@@ -13274,10 +13277,10 @@
         <v>18629</v>
       </c>
       <c r="O273">
-        <v>633900</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+        <v>586311</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>43373</v>
       </c>
@@ -13285,7 +13288,7 @@
         <v>8705</v>
       </c>
       <c r="C274">
-        <v>73674</v>
+        <v>36837</v>
       </c>
       <c r="D274">
         <v>17796</v>
@@ -13321,10 +13324,10 @@
         <v>14890</v>
       </c>
       <c r="O274">
-        <v>492785</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+        <v>455948</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>43374</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>7803</v>
       </c>
       <c r="C275">
-        <v>72848</v>
+        <v>36424</v>
       </c>
       <c r="D275">
         <v>15357</v>
@@ -13368,10 +13371,10 @@
         <v>13902</v>
       </c>
       <c r="O275">
-        <v>461210</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+        <v>424786</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>43375</v>
       </c>
@@ -13379,7 +13382,7 @@
         <v>7430</v>
       </c>
       <c r="C276">
-        <v>72898</v>
+        <v>36449</v>
       </c>
       <c r="D276">
         <v>14723</v>
@@ -13415,10 +13418,10 @@
         <v>13833</v>
       </c>
       <c r="O276">
-        <v>476993</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+        <v>440544</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>43376</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>7353</v>
       </c>
       <c r="C277">
-        <v>71244</v>
+        <v>35622</v>
       </c>
       <c r="D277">
         <v>13896</v>
@@ -13462,10 +13465,10 @@
         <v>14210</v>
       </c>
       <c r="O277">
-        <v>474909</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+        <v>439287</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>43377</v>
       </c>
@@ -13473,7 +13476,7 @@
         <v>7620</v>
       </c>
       <c r="C278">
-        <v>70926</v>
+        <v>35463</v>
       </c>
       <c r="D278">
         <v>13668</v>
@@ -13509,10 +13512,10 @@
         <v>14642</v>
       </c>
       <c r="O278">
-        <v>477070</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+        <v>441607</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>43378</v>
       </c>
@@ -13520,7 +13523,7 @@
         <v>8650</v>
       </c>
       <c r="C279">
-        <v>80102</v>
+        <v>40051</v>
       </c>
       <c r="D279">
         <v>16777</v>
@@ -13556,10 +13559,10 @@
         <v>16678</v>
       </c>
       <c r="O279">
-        <v>545184</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+        <v>505133</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>43379</v>
       </c>
@@ -13567,7 +13570,7 @@
         <v>9549</v>
       </c>
       <c r="C280">
-        <v>83524</v>
+        <v>41762</v>
       </c>
       <c r="D280">
         <v>20579</v>
@@ -13603,10 +13606,10 @@
         <v>17610</v>
       </c>
       <c r="O280">
-        <v>573143</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+        <v>531381</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>43380</v>
       </c>
@@ -13614,7 +13617,7 @@
         <v>6959</v>
       </c>
       <c r="C281">
-        <v>66592</v>
+        <v>33296</v>
       </c>
       <c r="D281">
         <v>12758</v>
@@ -13650,10 +13653,10 @@
         <v>13398</v>
       </c>
       <c r="O281">
-        <v>441073</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+        <v>407777</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>43381</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>6599</v>
       </c>
       <c r="C282">
-        <v>63460</v>
+        <v>31730</v>
       </c>
       <c r="D282">
         <v>12849</v>
@@ -13697,10 +13700,10 @@
         <v>12600</v>
       </c>
       <c r="O282">
-        <v>404737</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+        <v>373007</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>43382</v>
       </c>
@@ -13708,7 +13711,7 @@
         <v>7192</v>
       </c>
       <c r="C283">
-        <v>64434</v>
+        <v>32217</v>
       </c>
       <c r="D283">
         <v>14025</v>
@@ -13744,10 +13747,10 @@
         <v>14563</v>
       </c>
       <c r="O283">
-        <v>436965</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+        <v>404748</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>43383</v>
       </c>
@@ -13755,7 +13758,7 @@
         <v>7812</v>
       </c>
       <c r="C284">
-        <v>66796</v>
+        <v>33398</v>
       </c>
       <c r="D284">
         <v>15132</v>
@@ -13791,10 +13794,10 @@
         <v>15615</v>
       </c>
       <c r="O284">
-        <v>461313</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+        <v>427915</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>43384</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>8247</v>
       </c>
       <c r="C285">
-        <v>69418</v>
+        <v>34709</v>
       </c>
       <c r="D285">
         <v>15736</v>
@@ -13838,10 +13841,10 @@
         <v>15698</v>
       </c>
       <c r="O285">
-        <v>480583</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+        <v>445874</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>43385</v>
       </c>
@@ -13849,7 +13852,7 @@
         <v>9808</v>
       </c>
       <c r="C286">
-        <v>85500</v>
+        <v>42750</v>
       </c>
       <c r="D286">
         <v>18151</v>
@@ -13885,10 +13888,10 @@
         <v>17277</v>
       </c>
       <c r="O286">
-        <v>564521</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+        <v>521771</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>43386</v>
       </c>
@@ -13896,7 +13899,7 @@
         <v>10881</v>
       </c>
       <c r="C287">
-        <v>83498</v>
+        <v>41749</v>
       </c>
       <c r="D287">
         <v>20097</v>
@@ -13932,10 +13935,10 @@
         <v>17381</v>
       </c>
       <c r="O287">
-        <v>594473</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+        <v>552724</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>43387</v>
       </c>
@@ -13943,7 +13946,7 @@
         <v>7494</v>
       </c>
       <c r="C288">
-        <v>63518</v>
+        <v>31759</v>
       </c>
       <c r="D288">
         <v>14682</v>
@@ -13979,10 +13982,10 @@
         <v>14193</v>
       </c>
       <c r="O288">
-        <v>457691</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+        <v>425932</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>43388</v>
       </c>
@@ -13990,7 +13993,7 @@
         <v>7532</v>
       </c>
       <c r="C289">
-        <v>62752</v>
+        <v>31376</v>
       </c>
       <c r="D289">
         <v>14561</v>
@@ -14026,10 +14029,10 @@
         <v>14849</v>
       </c>
       <c r="O289">
-        <v>448172</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+        <v>416796</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>43389</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>6740</v>
       </c>
       <c r="C290">
-        <v>60210</v>
+        <v>30105</v>
       </c>
       <c r="D290">
         <v>14290</v>
@@ -14073,10 +14076,10 @@
         <v>14033</v>
       </c>
       <c r="O290">
-        <v>490076</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+        <v>459971</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>43390</v>
       </c>
@@ -14084,7 +14087,7 @@
         <v>6578</v>
       </c>
       <c r="C291">
-        <v>55708</v>
+        <v>27854</v>
       </c>
       <c r="D291">
         <v>14914</v>
@@ -14120,10 +14123,10 @@
         <v>14373</v>
       </c>
       <c r="O291">
-        <v>446361</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+        <v>418507</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>43391</v>
       </c>
@@ -14131,7 +14134,7 @@
         <v>7200</v>
       </c>
       <c r="C292">
-        <v>57022</v>
+        <v>28511</v>
       </c>
       <c r="D292">
         <v>17844</v>
@@ -14167,10 +14170,10 @@
         <v>15263</v>
       </c>
       <c r="O292">
-        <v>451047</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+        <v>422536</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>43392</v>
       </c>
@@ -14178,7 +14181,7 @@
         <v>8158</v>
       </c>
       <c r="C293">
-        <v>65400</v>
+        <v>32700</v>
       </c>
       <c r="D293">
         <v>22699</v>
@@ -14214,10 +14217,10 @@
         <v>18420</v>
       </c>
       <c r="O293">
-        <v>515819</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+        <v>483119</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>43393</v>
       </c>
@@ -14225,7 +14228,7 @@
         <v>10822</v>
       </c>
       <c r="C294">
-        <v>76920</v>
+        <v>38460</v>
       </c>
       <c r="D294">
         <v>29061</v>
@@ -14261,10 +14264,10 @@
         <v>21620</v>
       </c>
       <c r="O294">
-        <v>609719</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+        <v>571259</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>43394</v>
       </c>
@@ -14272,7 +14275,7 @@
         <v>9334</v>
       </c>
       <c r="C295">
-        <v>70590</v>
+        <v>35295</v>
       </c>
       <c r="D295">
         <v>21741</v>
@@ -14308,10 +14311,10 @@
         <v>17525</v>
       </c>
       <c r="O295">
-        <v>539539</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+        <v>504244</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>43395</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v>9805</v>
       </c>
       <c r="C296">
-        <v>76058</v>
+        <v>38029</v>
       </c>
       <c r="D296">
         <v>20768</v>
@@ -14355,10 +14358,10 @@
         <v>17320</v>
       </c>
       <c r="O296">
-        <v>542492</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+        <v>504463</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>43396</v>
       </c>
@@ -14366,7 +14369,7 @@
         <v>10590</v>
       </c>
       <c r="C297">
-        <v>77872</v>
+        <v>38936</v>
       </c>
       <c r="D297">
         <v>21711</v>
@@ -14402,10 +14405,10 @@
         <v>17814</v>
       </c>
       <c r="O297">
-        <v>565215</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+        <v>526279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>43397</v>
       </c>
@@ -14413,7 +14416,7 @@
         <v>10596</v>
       </c>
       <c r="C298">
-        <v>79420</v>
+        <v>39710</v>
       </c>
       <c r="D298">
         <v>22021</v>
@@ -14449,10 +14452,10 @@
         <v>17736</v>
       </c>
       <c r="O298">
-        <v>568954</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+        <v>529244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>43398</v>
       </c>
@@ -14460,7 +14463,7 @@
         <v>11355</v>
       </c>
       <c r="C299">
-        <v>79264</v>
+        <v>39632</v>
       </c>
       <c r="D299">
         <v>23058</v>
@@ -14496,10 +14499,10 @@
         <v>17466</v>
       </c>
       <c r="O299">
-        <v>573476</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+        <v>533844</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>43399</v>
       </c>
@@ -14507,7 +14510,7 @@
         <v>12370</v>
       </c>
       <c r="C300">
-        <v>83954</v>
+        <v>41977</v>
       </c>
       <c r="D300">
         <v>26094</v>
@@ -14543,10 +14546,10 @@
         <v>17351</v>
       </c>
       <c r="O300">
-        <v>619836</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+        <v>577859</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>43400</v>
       </c>
@@ -14554,7 +14557,7 @@
         <v>12925</v>
       </c>
       <c r="C301">
-        <v>85772</v>
+        <v>42886</v>
       </c>
       <c r="D301">
         <v>30098</v>
@@ -14590,10 +14593,10 @@
         <v>20576</v>
       </c>
       <c r="O301">
-        <v>663633</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+        <v>620747</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>43401</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>6440</v>
       </c>
       <c r="C302">
-        <v>42394</v>
+        <v>21197</v>
       </c>
       <c r="D302">
         <v>15506</v>
@@ -14637,10 +14640,10 @@
         <v>9855</v>
       </c>
       <c r="O302">
-        <v>418732</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+        <v>397535</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>43402</v>
       </c>
@@ -14648,7 +14651,7 @@
         <v>12340</v>
       </c>
       <c r="C303">
-        <v>72658</v>
+        <v>36329</v>
       </c>
       <c r="D303">
         <v>25033</v>
@@ -14684,10 +14687,10 @@
         <v>17578</v>
       </c>
       <c r="O303">
-        <v>562954</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+        <v>526625</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>43403</v>
       </c>
@@ -14695,7 +14698,7 @@
         <v>11596</v>
       </c>
       <c r="C304">
-        <v>73820</v>
+        <v>36910</v>
       </c>
       <c r="D304">
         <v>25910</v>
@@ -14731,10 +14734,10 @@
         <v>17713</v>
       </c>
       <c r="O304">
-        <v>554566</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+        <v>517656</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>43404</v>
       </c>
@@ -14742,7 +14745,7 @@
         <v>12845</v>
       </c>
       <c r="C305">
-        <v>76646</v>
+        <v>38323</v>
       </c>
       <c r="D305">
         <v>28243</v>
@@ -14778,10 +14781,10 @@
         <v>19165</v>
       </c>
       <c r="O305">
-        <v>602148</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+        <v>563825</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>43405</v>
       </c>
@@ -14789,7 +14792,7 @@
         <v>14840</v>
       </c>
       <c r="C306">
-        <v>89012</v>
+        <v>44506</v>
       </c>
       <c r="D306">
         <v>32130</v>
@@ -14825,10 +14828,10 @@
         <v>18920</v>
       </c>
       <c r="O306">
-        <v>666859</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+        <v>622353</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>43406</v>
       </c>
@@ -14836,7 +14839,7 @@
         <v>15754</v>
       </c>
       <c r="C307">
-        <v>91712</v>
+        <v>45856</v>
       </c>
       <c r="D307">
         <v>33039</v>
@@ -14872,10 +14875,10 @@
         <v>19511</v>
       </c>
       <c r="O307">
-        <v>688756</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+        <v>642900</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>43407</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>12571</v>
       </c>
       <c r="C308">
-        <v>79004</v>
+        <v>39502</v>
       </c>
       <c r="D308">
         <v>27985</v>
@@ -14919,10 +14922,10 @@
         <v>19179</v>
       </c>
       <c r="O308">
-        <v>604154</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+        <v>564652</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>43408</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>5320</v>
       </c>
       <c r="C309">
-        <v>35686</v>
+        <v>17843</v>
       </c>
       <c r="D309">
         <v>11073</v>
@@ -14966,10 +14969,10 @@
         <v>10179</v>
       </c>
       <c r="O309">
-        <v>331391</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+        <v>313548</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>43409</v>
       </c>
@@ -14977,7 +14980,7 @@
         <v>6655</v>
       </c>
       <c r="C310">
-        <v>45746</v>
+        <v>22873</v>
       </c>
       <c r="D310">
         <v>11519</v>
@@ -15013,10 +15016,10 @@
         <v>12700</v>
       </c>
       <c r="O310">
-        <v>367500</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+        <v>344627</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>43410</v>
       </c>
@@ -15024,7 +15027,7 @@
         <v>6562</v>
       </c>
       <c r="C311">
-        <v>46484</v>
+        <v>23242</v>
       </c>
       <c r="D311">
         <v>10342</v>
@@ -15060,10 +15063,10 @@
         <v>12577</v>
       </c>
       <c r="O311">
-        <v>368228</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+        <v>344986</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>43411</v>
       </c>
@@ -15071,7 +15074,7 @@
         <v>6486</v>
       </c>
       <c r="C312">
-        <v>45630</v>
+        <v>22815</v>
       </c>
       <c r="D312">
         <v>12660</v>
@@ -15107,10 +15110,10 @@
         <v>12498</v>
       </c>
       <c r="O312">
-        <v>359463</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+        <v>336648</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>43412</v>
       </c>
@@ -15118,7 +15121,7 @@
         <v>6508</v>
       </c>
       <c r="C313">
-        <v>45200</v>
+        <v>22600</v>
       </c>
       <c r="D313">
         <v>12685</v>
@@ -15154,10 +15157,10 @@
         <v>12362</v>
       </c>
       <c r="O313">
-        <v>362064</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+        <v>339464</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>43413</v>
       </c>
@@ -15165,7 +15168,7 @@
         <v>6855</v>
       </c>
       <c r="C314">
-        <v>48712</v>
+        <v>24356</v>
       </c>
       <c r="D314">
         <v>14311</v>
@@ -15201,10 +15204,10 @@
         <v>13895</v>
       </c>
       <c r="O314">
-        <v>395268</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+        <v>370912</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>43414</v>
       </c>
@@ -15212,7 +15215,7 @@
         <v>7200</v>
       </c>
       <c r="C315">
-        <v>52744</v>
+        <v>26372</v>
       </c>
       <c r="D315">
         <v>15765</v>
@@ -15248,10 +15251,10 @@
         <v>15638</v>
       </c>
       <c r="O315">
-        <v>427285</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+        <v>400913</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>43415</v>
       </c>
@@ -15259,7 +15262,7 @@
         <v>5405</v>
       </c>
       <c r="C316">
-        <v>41036</v>
+        <v>20518</v>
       </c>
       <c r="D316">
         <v>11801</v>
@@ -15295,10 +15298,10 @@
         <v>12840</v>
       </c>
       <c r="O316">
-        <v>343711</v>
-      </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+        <v>323193</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>43416</v>
       </c>
@@ -15306,7 +15309,7 @@
         <v>5643</v>
       </c>
       <c r="C317">
-        <v>43640</v>
+        <v>21820</v>
       </c>
       <c r="D317">
         <v>11404</v>
@@ -15342,10 +15345,10 @@
         <v>12496</v>
       </c>
       <c r="O317">
-        <v>337869</v>
-      </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+        <v>316049</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>43417</v>
       </c>
@@ -15353,7 +15356,7 @@
         <v>4841</v>
       </c>
       <c r="C318">
-        <v>44400</v>
+        <v>22200</v>
       </c>
       <c r="D318">
         <v>10867</v>
@@ -15389,10 +15392,10 @@
         <v>12611</v>
       </c>
       <c r="O318">
-        <v>338861</v>
-      </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+        <v>316661</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>43418</v>
       </c>
@@ -15400,7 +15403,7 @@
         <v>4711</v>
       </c>
       <c r="C319">
-        <v>44112</v>
+        <v>22056</v>
       </c>
       <c r="D319">
         <v>10923</v>
@@ -15436,10 +15439,10 @@
         <v>13669</v>
       </c>
       <c r="O319">
-        <v>336173</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+        <v>314117</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>43419</v>
       </c>
@@ -15447,7 +15450,7 @@
         <v>4708</v>
       </c>
       <c r="C320">
-        <v>42866</v>
+        <v>21433</v>
       </c>
       <c r="D320">
         <v>10084</v>
@@ -15483,10 +15486,10 @@
         <v>13271</v>
       </c>
       <c r="O320">
-        <v>341070</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+        <v>319637</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>43420</v>
       </c>
@@ -15494,7 +15497,7 @@
         <v>6338</v>
       </c>
       <c r="C321">
-        <v>44258</v>
+        <v>22129</v>
       </c>
       <c r="D321">
         <v>11967</v>
@@ -15530,10 +15533,10 @@
         <v>13507</v>
       </c>
       <c r="O321">
-        <v>384111</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+        <v>361982</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>43421</v>
       </c>
@@ -15541,7 +15544,7 @@
         <v>6267</v>
       </c>
       <c r="C322">
-        <v>46180</v>
+        <v>23090</v>
       </c>
       <c r="D322">
         <v>13476</v>
@@ -15577,10 +15580,10 @@
         <v>15183</v>
       </c>
       <c r="O322">
-        <v>397333</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+        <v>374243</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>43422</v>
       </c>
@@ -15588,7 +15591,7 @@
         <v>3170</v>
       </c>
       <c r="C323">
-        <v>24508</v>
+        <v>12254</v>
       </c>
       <c r="D323">
         <v>7031</v>
@@ -15624,10 +15627,10 @@
         <v>10046</v>
       </c>
       <c r="O323">
-        <v>226673</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+        <v>214419</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>43423</v>
       </c>
@@ -15635,7 +15638,7 @@
         <v>4521</v>
       </c>
       <c r="C324">
-        <v>39880</v>
+        <v>19940</v>
       </c>
       <c r="D324">
         <v>9148</v>
@@ -15671,10 +15674,10 @@
         <v>12435</v>
       </c>
       <c r="O324">
-        <v>325506</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+        <v>305566</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>43424</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>4514</v>
       </c>
       <c r="C325">
-        <v>44536</v>
+        <v>22268</v>
       </c>
       <c r="D325">
         <v>8920</v>
@@ -15718,10 +15721,10 @@
         <v>13545</v>
       </c>
       <c r="O325">
-        <v>329830</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+        <v>307562</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>43425</v>
       </c>
@@ -15729,7 +15732,7 @@
         <v>4407</v>
       </c>
       <c r="C326">
-        <v>37638</v>
+        <v>18819</v>
       </c>
       <c r="D326">
         <v>9214</v>
@@ -15765,10 +15768,10 @@
         <v>12863</v>
       </c>
       <c r="O326">
-        <v>316404</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+        <v>297585</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>43426</v>
       </c>
@@ -15776,7 +15779,7 @@
         <v>4519</v>
       </c>
       <c r="C327">
-        <v>39204</v>
+        <v>19602</v>
       </c>
       <c r="D327">
         <v>9535</v>
@@ -15812,10 +15815,10 @@
         <v>11127</v>
       </c>
       <c r="O327">
-        <v>314533</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+        <v>294931</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>43427</v>
       </c>
@@ -15823,7 +15826,7 @@
         <v>4941</v>
       </c>
       <c r="C328">
-        <v>42976</v>
+        <v>21488</v>
       </c>
       <c r="D328">
         <v>11069</v>
@@ -15859,10 +15862,10 @@
         <v>11951</v>
       </c>
       <c r="O328">
-        <v>350228</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+        <v>328740</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>43428</v>
       </c>
@@ -15870,7 +15873,7 @@
         <v>5809</v>
       </c>
       <c r="C329">
-        <v>46880</v>
+        <v>23440</v>
       </c>
       <c r="D329">
         <v>12064</v>
@@ -15906,10 +15909,10 @@
         <v>12339</v>
       </c>
       <c r="O329">
-        <v>377738</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+        <v>354298</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>43429</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>3802</v>
       </c>
       <c r="C330">
-        <v>37518</v>
+        <v>18759</v>
       </c>
       <c r="D330">
         <v>8712</v>
@@ -15953,10 +15956,10 @@
         <v>10308</v>
       </c>
       <c r="O330">
-        <v>304063</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+        <v>285304</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>43430</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>3918</v>
       </c>
       <c r="C331">
-        <v>36006</v>
+        <v>18003</v>
       </c>
       <c r="D331">
         <v>9779</v>
@@ -16000,10 +16003,10 @@
         <v>10639</v>
       </c>
       <c r="O331">
-        <v>299094</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+        <v>281091</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>43431</v>
       </c>
@@ -16011,7 +16014,7 @@
         <v>3889</v>
       </c>
       <c r="C332">
-        <v>36420</v>
+        <v>18210</v>
       </c>
       <c r="D332">
         <v>9308</v>
@@ -16047,10 +16050,10 @@
         <v>11062</v>
       </c>
       <c r="O332">
-        <v>299572</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+        <v>281362</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>43432</v>
       </c>
@@ -16058,7 +16061,7 @@
         <v>3265</v>
       </c>
       <c r="C333">
-        <v>33560</v>
+        <v>16780</v>
       </c>
       <c r="D333">
         <v>8910</v>
@@ -16094,10 +16097,10 @@
         <v>10643</v>
       </c>
       <c r="O333">
-        <v>284827</v>
-      </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+        <v>268047</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>43433</v>
       </c>
@@ -16105,7 +16108,7 @@
         <v>3280</v>
       </c>
       <c r="C334">
-        <v>34356</v>
+        <v>17178</v>
       </c>
       <c r="D334">
         <v>8538</v>
@@ -16141,10 +16144,10 @@
         <v>10355</v>
       </c>
       <c r="O334">
-        <v>283179</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+        <v>266001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>43434</v>
       </c>
@@ -16152,7 +16155,7 @@
         <v>4147</v>
       </c>
       <c r="C335">
-        <v>36664</v>
+        <v>18332</v>
       </c>
       <c r="D335">
         <v>10306</v>
@@ -16188,10 +16191,10 @@
         <v>11367</v>
       </c>
       <c r="O335">
-        <v>325576</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+        <v>307244</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>43435</v>
       </c>
@@ -16199,7 +16202,7 @@
         <v>5095</v>
       </c>
       <c r="C336">
-        <v>41044</v>
+        <v>20522</v>
       </c>
       <c r="D336">
         <v>13054</v>
@@ -16235,10 +16238,10 @@
         <v>12246</v>
       </c>
       <c r="O336">
-        <v>362587</v>
-      </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+        <v>342065</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>43436</v>
       </c>
@@ -16246,7 +16249,7 @@
         <v>3470</v>
       </c>
       <c r="C337">
-        <v>33006</v>
+        <v>16503</v>
       </c>
       <c r="D337">
         <v>8342</v>
@@ -16282,10 +16285,10 @@
         <v>9601</v>
       </c>
       <c r="O337">
-        <v>282080</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+        <v>265577</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>43437</v>
       </c>
@@ -16332,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>43438</v>
       </c>
@@ -16340,7 +16343,7 @@
         <v>3990</v>
       </c>
       <c r="C339">
-        <v>34760</v>
+        <v>17380</v>
       </c>
       <c r="D339">
         <v>7921</v>
@@ -16376,10 +16379,10 @@
         <v>9305</v>
       </c>
       <c r="O339">
-        <v>274959</v>
-      </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+        <v>257579</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>43439</v>
       </c>
@@ -16387,7 +16390,7 @@
         <v>4045</v>
       </c>
       <c r="C340">
-        <v>35840</v>
+        <v>17920</v>
       </c>
       <c r="D340">
         <v>8199</v>
@@ -16423,10 +16426,10 @@
         <v>9422</v>
       </c>
       <c r="O340">
-        <v>285334</v>
-      </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+        <v>267414</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>43440</v>
       </c>
@@ -16434,7 +16437,7 @@
         <v>4793</v>
       </c>
       <c r="C341">
-        <v>42744</v>
+        <v>21372</v>
       </c>
       <c r="D341">
         <v>7920</v>
@@ -16470,10 +16473,10 @@
         <v>9158</v>
       </c>
       <c r="O341">
-        <v>298008</v>
-      </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+        <v>276636</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>43441</v>
       </c>
@@ -16481,7 +16484,7 @@
         <v>5730</v>
       </c>
       <c r="C342">
-        <v>46824</v>
+        <v>23412</v>
       </c>
       <c r="D342">
         <v>9085</v>
@@ -16517,10 +16520,10 @@
         <v>9731</v>
       </c>
       <c r="O342">
-        <v>337363</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+        <v>313951</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>43442</v>
       </c>
@@ -16528,7 +16531,7 @@
         <v>6065</v>
       </c>
       <c r="C343">
-        <v>48970</v>
+        <v>24485</v>
       </c>
       <c r="D343">
         <v>10346</v>
@@ -16564,10 +16567,10 @@
         <v>11348</v>
       </c>
       <c r="O343">
-        <v>351568</v>
-      </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+        <v>327083</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>43443</v>
       </c>
@@ -16575,7 +16578,7 @@
         <v>3125</v>
       </c>
       <c r="C344">
-        <v>30624</v>
+        <v>15312</v>
       </c>
       <c r="D344">
         <v>8054</v>
@@ -16611,10 +16614,10 @@
         <v>8530</v>
       </c>
       <c r="O344">
-        <v>254880</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+        <v>239568</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>43444</v>
       </c>
@@ -16622,7 +16625,7 @@
         <v>3701</v>
       </c>
       <c r="C345">
-        <v>31908</v>
+        <v>15954</v>
       </c>
       <c r="D345">
         <v>7880</v>
@@ -16658,10 +16661,10 @@
         <v>8918</v>
       </c>
       <c r="O345">
-        <v>247681</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+        <v>231727</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>43445</v>
       </c>
@@ -16669,7 +16672,7 @@
         <v>3607</v>
       </c>
       <c r="C346">
-        <v>31616</v>
+        <v>15808</v>
       </c>
       <c r="D346">
         <v>7682</v>
@@ -16705,10 +16708,10 @@
         <v>9317</v>
       </c>
       <c r="O346">
-        <v>258404</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+        <v>242596</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>43446</v>
       </c>
@@ -16716,7 +16719,7 @@
         <v>3470</v>
       </c>
       <c r="C347">
-        <v>32056</v>
+        <v>16028</v>
       </c>
       <c r="D347">
         <v>7720</v>
@@ -16752,10 +16755,10 @@
         <v>9015</v>
       </c>
       <c r="O347">
-        <v>245824</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+        <v>229796</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>43447</v>
       </c>
@@ -16763,7 +16766,7 @@
         <v>3014</v>
       </c>
       <c r="C348">
-        <v>30298</v>
+        <v>15149</v>
       </c>
       <c r="D348">
         <v>7788</v>
@@ -16799,10 +16802,10 @@
         <v>9110</v>
       </c>
       <c r="O348">
-        <v>245996</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+        <v>230847</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>43448</v>
       </c>
@@ -16810,7 +16813,7 @@
         <v>4304</v>
       </c>
       <c r="C349">
-        <v>34478</v>
+        <v>17239</v>
       </c>
       <c r="D349">
         <v>8935</v>
@@ -16846,10 +16849,10 @@
         <v>9804</v>
       </c>
       <c r="O349">
-        <v>280853</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+        <v>263614</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>43449</v>
       </c>
@@ -16857,7 +16860,7 @@
         <v>5186</v>
       </c>
       <c r="C350">
-        <v>38362</v>
+        <v>19181</v>
       </c>
       <c r="D350">
         <v>10074</v>
@@ -16893,10 +16896,10 @@
         <v>11199</v>
       </c>
       <c r="O350">
-        <v>315990</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+        <v>296809</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>43450</v>
       </c>
@@ -16904,7 +16907,7 @@
         <v>3497</v>
       </c>
       <c r="C351">
-        <v>29548</v>
+        <v>14774</v>
       </c>
       <c r="D351">
         <v>7379</v>
@@ -16940,10 +16943,10 @@
         <v>9314</v>
       </c>
       <c r="O351">
-        <v>249496</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+        <v>234722</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>43451</v>
       </c>
@@ -16951,7 +16954,7 @@
         <v>3962</v>
       </c>
       <c r="C352">
-        <v>31660</v>
+        <v>15830</v>
       </c>
       <c r="D352">
         <v>8187</v>
@@ -16987,10 +16990,10 @@
         <v>8963</v>
       </c>
       <c r="O352">
-        <v>247849</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+        <v>232019</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>43452</v>
       </c>
@@ -16998,7 +17001,7 @@
         <v>3708</v>
       </c>
       <c r="C353">
-        <v>32712</v>
+        <v>16356</v>
       </c>
       <c r="D353">
         <v>8129</v>
@@ -17034,10 +17037,10 @@
         <v>8612</v>
       </c>
       <c r="O353">
-        <v>256639</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+        <v>240283</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>43453</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>4498</v>
       </c>
       <c r="C354">
-        <v>33688</v>
+        <v>16844</v>
       </c>
       <c r="D354">
         <v>9328</v>
@@ -17081,10 +17084,10 @@
         <v>9621</v>
       </c>
       <c r="O354">
-        <v>267606</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+        <v>250762</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>43454</v>
       </c>
@@ -17092,7 +17095,7 @@
         <v>5572</v>
       </c>
       <c r="C355">
-        <v>36876</v>
+        <v>18438</v>
       </c>
       <c r="D355">
         <v>10585</v>
@@ -17128,10 +17131,10 @@
         <v>10125</v>
       </c>
       <c r="O355">
-        <v>296836</v>
-      </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+        <v>278398</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>43455</v>
       </c>
@@ -17139,7 +17142,7 @@
         <v>7703</v>
       </c>
       <c r="C356">
-        <v>48318</v>
+        <v>24159</v>
       </c>
       <c r="D356">
         <v>14061</v>
@@ -17175,10 +17178,10 @@
         <v>12938</v>
       </c>
       <c r="O356">
-        <v>389987</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+        <v>365828</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>43456</v>
       </c>
@@ -17186,7 +17189,7 @@
         <v>13855</v>
       </c>
       <c r="C357">
-        <v>68152</v>
+        <v>34076</v>
       </c>
       <c r="D357">
         <v>24271</v>
@@ -17222,10 +17225,10 @@
         <v>18790</v>
       </c>
       <c r="O357">
-        <v>564259</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+        <v>530183</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>43457</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>18149</v>
       </c>
       <c r="C358">
-        <v>83146</v>
+        <v>41573</v>
       </c>
       <c r="D358">
         <v>32184</v>
@@ -17269,10 +17272,10 @@
         <v>23739</v>
       </c>
       <c r="O358">
-        <v>697570</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+        <v>655997</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>43458</v>
       </c>
@@ -17280,7 +17283,7 @@
         <v>22935</v>
       </c>
       <c r="C359">
-        <v>99368</v>
+        <v>49684</v>
       </c>
       <c r="D359">
         <v>39923</v>
@@ -17316,10 +17319,10 @@
         <v>31288</v>
       </c>
       <c r="O359">
-        <v>853108</v>
-      </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+        <v>803424</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>43459</v>
       </c>
@@ -17327,7 +17330,7 @@
         <v>19773</v>
       </c>
       <c r="C360">
-        <v>86806</v>
+        <v>43403</v>
       </c>
       <c r="D360">
         <v>33662</v>
@@ -17363,10 +17366,10 @@
         <v>25874</v>
       </c>
       <c r="O360">
-        <v>722673</v>
-      </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+        <v>679270</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>43460</v>
       </c>
@@ -17374,7 +17377,7 @@
         <v>18999</v>
       </c>
       <c r="C361">
-        <v>82706</v>
+        <v>41353</v>
       </c>
       <c r="D361">
         <v>30734</v>
@@ -17410,10 +17413,10 @@
         <v>23131</v>
       </c>
       <c r="O361">
-        <v>678873</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+        <v>637520</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>43461</v>
       </c>
@@ -17421,7 +17424,7 @@
         <v>19636</v>
       </c>
       <c r="C362">
-        <v>85570</v>
+        <v>42785</v>
       </c>
       <c r="D362">
         <v>28685</v>
@@ -17457,10 +17460,10 @@
         <v>20888</v>
       </c>
       <c r="O362">
-        <v>659215</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+        <v>616430</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>43462</v>
       </c>
@@ -17468,7 +17471,7 @@
         <v>20106</v>
       </c>
       <c r="C363">
-        <v>86956</v>
+        <v>43478</v>
       </c>
       <c r="D363">
         <v>27731</v>
@@ -17504,10 +17507,10 @@
         <v>19821</v>
       </c>
       <c r="O363">
-        <v>668538</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+        <v>625060</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>43463</v>
       </c>
@@ -17515,7 +17518,7 @@
         <v>22222</v>
       </c>
       <c r="C364">
-        <v>90692</v>
+        <v>45346</v>
       </c>
       <c r="D364">
         <v>28838</v>
@@ -17551,10 +17554,10 @@
         <v>21047</v>
       </c>
       <c r="O364">
-        <v>707728</v>
-      </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+        <v>662382</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>43464</v>
       </c>
@@ -17562,7 +17565,7 @@
         <v>21727</v>
       </c>
       <c r="C365">
-        <v>84844</v>
+        <v>42422</v>
       </c>
       <c r="D365">
         <v>25687</v>
@@ -17598,10 +17601,10 @@
         <v>18413</v>
       </c>
       <c r="O365">
-        <v>685929</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+        <v>643507</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>43465</v>
       </c>
@@ -17609,7 +17612,7 @@
         <v>26681</v>
       </c>
       <c r="C366">
-        <v>98964</v>
+        <v>49482</v>
       </c>
       <c r="D366">
         <v>29585</v>
@@ -17645,7 +17648,7 @@
         <v>23002</v>
       </c>
       <c r="O366">
-        <v>842932</v>
+        <v>793450</v>
       </c>
     </row>
   </sheetData>
